--- a/recursos/EmparejamientoFINAL.xlsx
+++ b/recursos/EmparejamientoFINAL.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\OneDrive\Documents\7 semestre\Sistema-TuGestor\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9B604A-7A87-460C-A802-BDC7181A0D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB653F65-4D7A-4929-8D6B-AE8151877B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="670" xr2:uid="{FD9F6918-DD5F-4EFB-A5DA-81B3D2DC95CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Emparejamiento" sheetId="1" r:id="rId1"/>
-    <sheet name="Envío correos" sheetId="3" r:id="rId2"/>
-    <sheet name="Pendiente por emparejar" sheetId="5" r:id="rId3"/>
-    <sheet name="Tutores retirados" sheetId="6" r:id="rId4"/>
-    <sheet name="Tutorados sin respuesta" sheetId="4" r:id="rId5"/>
+    <sheet name="Todos los tutorados " sheetId="7" r:id="rId2"/>
+    <sheet name="Envío correos" sheetId="3" r:id="rId3"/>
+    <sheet name="Pendiente por emparejar" sheetId="5" r:id="rId4"/>
+    <sheet name="Tutores retirados" sheetId="6" r:id="rId5"/>
+    <sheet name="Tutorados sin respuesta" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Emparejamiento!$A$1:$AT$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Envío correos'!$A$1:$AT$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Emparejamiento!$A$1:$AY$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Envío correos'!$A$1:$AT$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,25 @@
     <author>tc={1CDBB0FC-D22E-4D10-A2DB-DC4D443F4280}</author>
   </authors>
   <commentList>
-    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{1CDBB0FC-D22E-4D10-A2DB-DC4D443F4280}">
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{1CDBB0FC-D22E-4D10-A2DB-DC4D443F4280}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Tuvo problemas de salud y no se ha contactado a las tutorías, pendiente respuesta para avisar al tutor</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B30B35B7-16C6-42C1-8BFB-C43D8A401A3B}</author>
+  </authors>
+  <commentList>
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{B30B35B7-16C6-42C1-8BFB-C43D8A401A3B}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -62,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="168">
   <si>
     <t>1.id</t>
   </si>
@@ -504,6 +523,72 @@
   </si>
   <si>
     <t>Prueba3@pruebmail.com</t>
+  </si>
+  <si>
+    <t>Horarios</t>
+  </si>
+  <si>
+    <t>Matematicas</t>
+  </si>
+  <si>
+    <t>Entre semana de 6:00pm-8:00pm</t>
+  </si>
+  <si>
+    <t>Entre semana de 5:00pm-6:00pm</t>
+  </si>
+  <si>
+    <t>Sábados en la mañana</t>
+  </si>
+  <si>
+    <t>Entre semana de 4:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t>Entre Semana de 3:00pm - 4:00pm</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>mañana</t>
+  </si>
+  <si>
+    <t>Sábados en la tarde</t>
+  </si>
+  <si>
+    <t>Entre semana de 2:00pm-3:00pm</t>
+  </si>
+  <si>
+    <t>Entre semana de 3:00pm-4:00pm</t>
+  </si>
+  <si>
+    <t>Entre semana por la mañana</t>
+  </si>
+  <si>
+    <t>Tarde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo </t>
+  </si>
+  <si>
+    <t>ingles</t>
+  </si>
+  <si>
+    <t>matematicas</t>
+  </si>
+  <si>
+    <t>tarde</t>
+  </si>
+  <si>
+    <t>Colegio Ejemplo2</t>
+  </si>
+  <si>
+    <t>Colegio Ejemplo9</t>
+  </si>
+  <si>
+    <t>Colegio Victoria</t>
+  </si>
+  <si>
+    <t>Institucion camilo vargas</t>
   </si>
 </sst>
 </file>
@@ -513,7 +598,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,8 +622,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,6 +665,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,7 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -695,12 +806,31 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="121">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1168,6 +1298,256 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1997,7 +2377,15 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AB2" dT="2024-08-26T15:20:09.83" personId="{6BF10669-F13D-41C7-B8E7-9451771FA6CB}" id="{1CDBB0FC-D22E-4D10-A2DB-DC4D443F4280}">
+  <threadedComment ref="AE2" dT="2024-08-26T15:20:09.83" personId="{6BF10669-F13D-41C7-B8E7-9451771FA6CB}" id="{1CDBB0FC-D22E-4D10-A2DB-DC4D443F4280}">
+    <text>Tuvo problemas de salud y no se ha contactado a las tutorías, pendiente respuesta para avisar al tutor</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A12" dT="2024-08-26T15:20:09.83" personId="{6BF10669-F13D-41C7-B8E7-9451771FA6CB}" id="{B30B35B7-16C6-42C1-8BFB-C43D8A401A3B}">
     <text>Tuvo problemas de salud y no se ha contactado a las tutorías, pendiente respuesta para avisar al tutor</text>
   </threadedComment>
 </ThreadedComments>
@@ -2005,25 +2393,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D120C5C-D1E3-40C4-B4D7-C7D7020D0451}">
-  <dimension ref="A1:AU57"/>
+  <dimension ref="A1:AZ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="10.85546875" style="22"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" customWidth="1"/>
-    <col min="32" max="32" width="17.28515625" customWidth="1"/>
-    <col min="46" max="46" width="97.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="22" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="29" max="29" width="30" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.42578125" customWidth="1"/>
+    <col min="35" max="35" width="17.28515625" customWidth="1"/>
+    <col min="49" max="49" width="30" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="97.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -2051,122 +2443,137 @@
       <c r="I1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AK1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AL1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AM1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AN1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AO1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AP1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="13" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="13" t="s">
+      <c r="AR1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AS1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AT1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AU1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AV1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AW1" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX1" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="AY1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="25" t="s">
+      <c r="AZ1" s="25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>62</v>
       </c>
@@ -2185,125 +2592,146 @@
       <c r="F2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H2" s="15" t="s">
         <v>142</v>
       </c>
       <c r="I2" s="16">
         <v>20</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="18">
+      <c r="L2" s="18">
         <v>1000477320</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="17">
+      <c r="N2" s="17">
         <v>3058829527</v>
       </c>
-      <c r="N2" s="17">
+      <c r="O2" s="17">
         <v>3498597548</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="P2" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="29">
+      <c r="Q2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="29">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R2" s="29">
+      <c r="S2" s="29">
         <v>4</v>
       </c>
-      <c r="S2" s="29">
+      <c r="T2" s="29">
         <v>5</v>
       </c>
-      <c r="T2" s="29">
+      <c r="U2" s="29">
         <v>2.5</v>
       </c>
-      <c r="U2" s="29">
+      <c r="V2" s="29">
         <v>5</v>
       </c>
-      <c r="V2" s="29">
+      <c r="W2" s="29">
         <v>4.2</v>
       </c>
-      <c r="W2" s="29">
+      <c r="X2" s="29">
         <v>3.2</v>
       </c>
-      <c r="X2" s="29">
+      <c r="Y2" s="29">
         <v>2.6</v>
       </c>
-      <c r="Y2" s="29">
+      <c r="Z2" s="29">
         <v>3.8</v>
       </c>
-      <c r="Z2" s="29">
+      <c r="AA2" s="29">
         <v>3.2</v>
       </c>
-      <c r="AA2" s="29">
+      <c r="AB2" s="29">
         <v>3.1</v>
       </c>
-      <c r="AB2" s="17" t="s">
+      <c r="AC2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE2" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="AC2" s="18">
+      <c r="AF2" s="18">
         <v>1010944104</v>
       </c>
-      <c r="AD2" s="17" t="s">
+      <c r="AG2" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="AE2" s="17">
+      <c r="AH2" s="17">
         <v>3045124420</v>
       </c>
-      <c r="AF2" s="17">
+      <c r="AI2" s="17">
         <v>3032568220</v>
       </c>
-      <c r="AG2" s="27" t="s">
+      <c r="AJ2" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="29">
+      <c r="AK2" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL2" s="29">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AJ2" s="29">
+      <c r="AM2" s="29">
         <v>4</v>
       </c>
-      <c r="AK2" s="29">
+      <c r="AN2" s="29">
         <v>5</v>
       </c>
-      <c r="AL2" s="29">
+      <c r="AO2" s="29">
         <v>2.5</v>
       </c>
-      <c r="AM2" s="29">
+      <c r="AP2" s="29">
         <v>5</v>
       </c>
-      <c r="AN2" s="29">
+      <c r="AQ2" s="29">
         <v>4.2</v>
-      </c>
-      <c r="AO2" s="29">
-        <v>3.2</v>
-      </c>
-      <c r="AP2" s="29">
-        <v>2.6</v>
-      </c>
-      <c r="AQ2" s="29">
-        <v>3.8</v>
       </c>
       <c r="AR2" s="29">
         <v>3.2</v>
       </c>
       <c r="AS2" s="29">
+        <v>2.6</v>
+      </c>
+      <c r="AT2" s="29">
+        <v>3.8</v>
+      </c>
+      <c r="AU2" s="29">
         <v>3.2</v>
       </c>
-      <c r="AT2" s="21" t="s">
+      <c r="AV2" s="29">
+        <v>3.2</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX2" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="AY2" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AU2" s="18" t="s">
+      <c r="AZ2" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>76</v>
       </c>
@@ -2322,7 +2750,9 @@
       <c r="F3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="H3" s="15" t="s">
         <v>143</v>
       </c>
@@ -2330,132 +2760,156 @@
         <v>80</v>
       </c>
       <c r="J3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="6">
+      <c r="L3" s="6">
         <v>1037883695</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>3117565623</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>3113735209</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="P3" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="Q3" s="28">
-        <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>0</v>
+      <c r="Q3" t="s">
+        <v>147</v>
       </c>
       <c r="R3" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="S3" s="28">
-        <f t="shared" ref="S3:AA10" ca="1" si="0">ROUND(RAND()*5,1)</f>
+        <f ca="1">ROUND(RAND()*5,1)</f>
         <v>0.9</v>
       </c>
       <c r="T3" s="28">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="T3:AB10" ca="1" si="0">ROUND(RAND()*5,1)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="V3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="W3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="Y3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="Z3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="AA3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF3">
+        <v>1023456789</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH3">
+        <v>3101234567</v>
+      </c>
+      <c r="AI3">
+        <v>3155551212</v>
+      </c>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" ref="AL3:AV8" ca="1" si="1">ROUND(RAND()*5,1)</f>
+        <v>0.9</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.8</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" ca="1" si="1"/>
         <v>3.1</v>
       </c>
-      <c r="U3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="V3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="W3" s="28">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AT3">
+        <f t="shared" ca="1" si="1"/>
         <v>1.3</v>
       </c>
-      <c r="X3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="Y3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
-      </c>
-      <c r="Z3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="AA3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC3">
-        <v>1023456789</v>
-      </c>
-      <c r="AE3">
-        <v>3101234567</v>
-      </c>
-      <c r="AF3">
-        <v>3155551212</v>
-      </c>
-      <c r="AG3" s="30"/>
-      <c r="AI3">
-        <f t="shared" ref="AI3:AS8" ca="1" si="1">ROUND(RAND()*5,1)</f>
-        <v>3.7</v>
-      </c>
-      <c r="AJ3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.8</v>
-      </c>
-      <c r="AK3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="AL3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.8</v>
-      </c>
-      <c r="AM3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="AN3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="AO3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AP3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.3</v>
-      </c>
-      <c r="AR3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.2</v>
-      </c>
-      <c r="AS3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AT3" s="21" t="s">
+      <c r="AU3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9</v>
+      </c>
+      <c r="AW3" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY3" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AZ3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>90</v>
       </c>
@@ -2474,7 +2928,9 @@
       <c r="F4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="H4" s="15" t="s">
         <v>143</v>
       </c>
@@ -2482,132 +2938,153 @@
         <v>80</v>
       </c>
       <c r="J4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" t="s">
         <v>113</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="6">
         <v>1040872361</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>71</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3244716820</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>3146538937</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="P4" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>0.5</v>
-      </c>
-      <c r="R4" s="28">
-        <f t="shared" ref="R4:R10" ca="1" si="2">ROUND(RAND()*5,1)</f>
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="S4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="S4:S10" ca="1" si="2">ROUND(RAND()*5,1)</f>
+        <v>4</v>
       </c>
       <c r="T4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5999999999999996</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="U4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="V4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="W4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="X4" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="Y4" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="Y4" s="28">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Z4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="AA4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AB4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AC4" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD4" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF4">
+        <v>1122334455</v>
+      </c>
+      <c r="AG4" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI4">
+        <v>3224445566</v>
+      </c>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.6</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" ca="1" si="1"/>
         <v>1.3</v>
       </c>
-      <c r="Z4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="AA4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.8</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC4">
-        <v>1122334455</v>
-      </c>
-      <c r="AE4">
-        <v>3112223344</v>
-      </c>
-      <c r="AF4">
-        <v>3224445566</v>
-      </c>
-      <c r="AG4" s="30"/>
-      <c r="AI4">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.8</v>
-      </c>
-      <c r="AJ4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AK4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.3</v>
-      </c>
-      <c r="AL4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.7</v>
-      </c>
-      <c r="AM4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AN4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.9</v>
-      </c>
-      <c r="AO4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
       <c r="AP4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="AQ4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="AR4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="AS4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7</v>
-      </c>
-      <c r="AT4" s="7" t="s">
+        <v>2.6</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AV4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AZ4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>93</v>
       </c>
@@ -2626,7 +3103,9 @@
       <c r="F5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="H5" s="15" t="s">
         <v>143</v>
       </c>
@@ -2634,759 +3113,892 @@
         <v>81</v>
       </c>
       <c r="J5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" t="s">
         <v>114</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1040334221</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>3107589894</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>3025791188</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="P5" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="Q5" s="28">
-        <f t="shared" ref="Q5:Q10" ca="1" si="3">ROUND(RAND()*5,1)</f>
+      <c r="Q5" t="s">
+        <v>147</v>
+      </c>
+      <c r="R5" s="28">
+        <f t="shared" ref="R5:R10" ca="1" si="3">ROUND(RAND()*5,1)</f>
+        <v>2.1</v>
+      </c>
+      <c r="S5" s="28">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="T5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="U5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="V5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="W5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="X5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="Y5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="Z5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="AB5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AC5" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD5" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF5">
+        <v>1234567890</v>
+      </c>
+      <c r="AG5" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH5">
+        <v>3007778899</v>
+      </c>
+      <c r="AI5">
+        <v>3129991122</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.9</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.1</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1046716109</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6">
+        <v>3243098774</v>
+      </c>
+      <c r="O6">
+        <v>3044155979</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="R6" s="28">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S6" s="28">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="U6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="W6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="X6" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="R5" s="28">
+      <c r="Y6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="Z6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="AB6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="AC6" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD6" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF6" s="18">
+        <v>1098765432</v>
+      </c>
+      <c r="AG6" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH6" s="17">
+        <v>3173344556</v>
+      </c>
+      <c r="AI6" s="17">
+        <v>3195566778</v>
+      </c>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL6" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="AM6" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="AN6" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="AO6" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AP6" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.7</v>
+      </c>
+      <c r="AQ6" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="AR6" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.6</v>
+      </c>
+      <c r="AS6" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="AT6" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AU6" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AV6" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="AW6" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX6" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="AY6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1020316404</v>
+      </c>
+      <c r="M7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7">
+        <v>3225962995</v>
+      </c>
+      <c r="O7">
+        <v>3105528456</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="28">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="28">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8</v>
+      </c>
+      <c r="T7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="U7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="W7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="X7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="Z7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="AA7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="AB7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="AC7" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD7" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF7">
+        <v>1000939523</v>
+      </c>
+      <c r="AG7" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH7">
+        <v>3216677889</v>
+      </c>
+      <c r="AI7">
+        <v>3184455667</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.3</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1137725488</v>
+      </c>
+      <c r="M8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8">
+        <v>3294344455</v>
+      </c>
+      <c r="O8">
+        <v>3284344455</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>147</v>
+      </c>
+      <c r="R8" s="28">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="S8" s="28">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="U8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="V8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="W8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="X8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Y8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="Z8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="AA8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="AC8" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD8" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF8">
+        <v>1928412412</v>
+      </c>
+      <c r="AG8" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH8">
+        <v>3237788990</v>
+      </c>
+      <c r="AI8">
+        <v>3248899001</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.4</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.8</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.7</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AY8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1070753987</v>
+      </c>
+      <c r="M9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9">
+        <v>3262122233</v>
+      </c>
+      <c r="O9">
+        <v>3295455566</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R9" s="28">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S9" s="28">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="T9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="X9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="Y9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="Z9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="AA9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AB9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD9" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY9" s="7"/>
+    </row>
+    <row r="10" spans="1:52" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1070653287</v>
+      </c>
+      <c r="N10">
+        <v>3249900112</v>
+      </c>
+      <c r="O10">
+        <v>3251011123</v>
+      </c>
+      <c r="P10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>147</v>
+      </c>
+      <c r="R10" s="28">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="S10" s="28">
         <f t="shared" ca="1" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="S5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="T5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="U5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="V5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
-      </c>
-      <c r="W5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="X5" s="28">
+      <c r="T10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="U10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="V10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W10" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>1.3</v>
       </c>
-      <c r="Y5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z5" s="28">
+      <c r="X10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Z10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="AA10" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="AA5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC5">
-        <v>1234567890</v>
-      </c>
-      <c r="AE5">
-        <v>3007778899</v>
-      </c>
-      <c r="AF5">
-        <v>3129991122</v>
-      </c>
-      <c r="AI5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="AK5">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.1</v>
-      </c>
-      <c r="AL5">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AM5">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.8</v>
-      </c>
-      <c r="AN5">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.4</v>
-      </c>
-      <c r="AO5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="AP5">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.8</v>
-      </c>
-      <c r="AQ5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="AR5">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.7</v>
-      </c>
-      <c r="AS5">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="AT5" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" t="s">
-        <v>115</v>
-      </c>
-      <c r="K6" s="6">
-        <v>1046716109</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6">
-        <v>3243098774</v>
-      </c>
-      <c r="N6">
-        <v>3044155979</v>
-      </c>
-      <c r="O6" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="28">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="R6" s="28">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.1</v>
-      </c>
-      <c r="S6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
-      </c>
-      <c r="T6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="U6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.3</v>
-      </c>
-      <c r="V6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="W6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9</v>
-      </c>
-      <c r="X6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="Y6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.8</v>
-      </c>
-      <c r="Z6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AA6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC6" s="18">
-        <v>1098765432</v>
-      </c>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17">
-        <v>3173344556</v>
-      </c>
-      <c r="AF6" s="17">
-        <v>3195566778</v>
-      </c>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AJ6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.7</v>
-      </c>
-      <c r="AK6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="AL6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="AM6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="AN6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.7</v>
-      </c>
-      <c r="AO6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.9</v>
-      </c>
-      <c r="AP6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.8</v>
-      </c>
-      <c r="AQ6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="AR6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AS6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AT6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1020316404</v>
-      </c>
-      <c r="L7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7">
-        <v>3225962995</v>
-      </c>
-      <c r="N7">
-        <v>3105528456</v>
-      </c>
-      <c r="O7" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q7" s="28">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.7</v>
-      </c>
-      <c r="R7" s="28">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.8</v>
-      </c>
-      <c r="S7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="T7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="U7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
-      </c>
-      <c r="V7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="X7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Y7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
-      </c>
-      <c r="Z7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="AA7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE7">
-        <v>3216677889</v>
-      </c>
-      <c r="AF7">
-        <v>3184455667</v>
-      </c>
-      <c r="AI7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AJ7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="AK7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AL7">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2</v>
-      </c>
-      <c r="AM7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.9</v>
-      </c>
-      <c r="AN7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="AO7">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.8</v>
-      </c>
-      <c r="AP7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="AQ7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="AR7">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AS7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="AT7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="6">
-        <v>1137725488</v>
-      </c>
-      <c r="L8" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8">
-        <v>3294344455</v>
-      </c>
-      <c r="N8">
-        <v>3284344455</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q8" s="28">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="R8" s="28">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="S8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="T8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="U8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9</v>
-      </c>
-      <c r="V8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="W8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="X8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="Y8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Z8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="AA8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.7</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE8">
-        <v>3237788990</v>
-      </c>
-      <c r="AF8">
-        <v>3248899001</v>
-      </c>
-      <c r="AI8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="AJ8">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="AK8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="AL8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="AM8">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AN8">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AO8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.7</v>
-      </c>
-      <c r="AP8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="AQ8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="AR8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="AS8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="AT8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" t="s">
-        <v>118</v>
-      </c>
-      <c r="K9" s="6">
-        <v>1070753987</v>
-      </c>
-      <c r="L9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M9">
-        <v>3262122233</v>
-      </c>
-      <c r="N9">
-        <v>3295455566</v>
-      </c>
-      <c r="O9" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q9" s="28">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.8</v>
-      </c>
-      <c r="R9" s="28">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="S9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.9</v>
-      </c>
-      <c r="T9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="U9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="V9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="W9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="X9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.3</v>
-      </c>
-      <c r="Z9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AA9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="AT9" s="7"/>
-    </row>
-    <row r="10" spans="1:47" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K10" s="6">
-        <v>1070653287</v>
-      </c>
-      <c r="M10">
-        <v>3249900112</v>
-      </c>
-      <c r="N10">
-        <v>3251011123</v>
-      </c>
-      <c r="O10" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q10" s="28">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="R10" s="28">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="S10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="T10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="U10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="V10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9</v>
-      </c>
-      <c r="W10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="X10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="Y10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="Z10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AA10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="AT10" s="7"/>
-    </row>
-    <row r="11" spans="1:47" ht="45" x14ac:dyDescent="0.25">
+      <c r="AB10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="AC10" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD10" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY10" s="7"/>
+    </row>
+    <row r="11" spans="1:52" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>51</v>
       </c>
@@ -3414,29 +4026,29 @@
       <c r="I11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="6">
         <v>1044655071</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>48</v>
-      </c>
-      <c r="M11" t="s">
-        <v>49</v>
       </c>
       <c r="N11" t="s">
         <v>49</v>
       </c>
       <c r="O11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" t="s">
         <v>50</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>46</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>0</v>
       </c>
       <c r="R11" s="6">
         <v>0</v>
@@ -3468,8 +4080,17 @@
       <c r="AA11" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AB11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="D12" s="7"/>
@@ -3478,8 +4099,8 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="19"/>
-      <c r="K12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="J12" s="19"/>
+      <c r="L12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -3490,9 +4111,13 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
-      <c r="AT12" s="7"/>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AG12" s="28"/>
+      <c r="AY12" s="7"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -3502,8 +4127,8 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="19"/>
-      <c r="K13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="J13" s="19"/>
+      <c r="L13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -3514,9 +4139,13 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
-      <c r="AT13" s="7"/>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AG13" s="28"/>
+      <c r="AY13" s="7"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3526,8 +4155,8 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="19"/>
-      <c r="K14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="J14" s="19"/>
+      <c r="L14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -3538,9 +4167,13 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
-      <c r="AT14" s="7"/>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AG14" s="28"/>
+      <c r="AY14" s="7"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -3550,8 +4183,8 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="19"/>
-      <c r="K15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="J15" s="19"/>
+      <c r="L15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -3562,9 +4195,13 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
-      <c r="AT15" s="21"/>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AG15" s="28"/>
+      <c r="AY15" s="21"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3574,8 +4211,8 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="19"/>
-      <c r="K16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="J16" s="19"/>
+      <c r="L16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
@@ -3586,9 +4223,13 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
-      <c r="AT16" s="7"/>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AG16" s="28"/>
+      <c r="AY16" s="7"/>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3598,8 +4239,8 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="19"/>
-      <c r="K17" s="6"/>
-      <c r="Q17" s="6"/>
+      <c r="J17" s="19"/>
+      <c r="L17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
@@ -3610,9 +4251,13 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
-      <c r="AT17" s="7"/>
-    </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AG17" s="28"/>
+      <c r="AY17" s="7"/>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3622,8 +4267,8 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="19"/>
-      <c r="K18" s="6"/>
-      <c r="Q18" s="6"/>
+      <c r="J18" s="19"/>
+      <c r="L18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
@@ -3634,8 +4279,12 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AG18" s="28"/>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -3644,8 +4293,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="K19" s="6"/>
-      <c r="Q19" s="6"/>
+      <c r="L19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
@@ -3656,9 +4304,13 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
-      <c r="AT19" s="7"/>
-    </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AG19" s="28"/>
+      <c r="AY19" s="7"/>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3667,8 +4319,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="K20" s="6"/>
-      <c r="Q20" s="6"/>
+      <c r="L20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
@@ -3679,8 +4330,12 @@
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AG20" s="28"/>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3689,8 +4344,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="K21" s="6"/>
-      <c r="Q21" s="6"/>
+      <c r="L21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
@@ -3701,8 +4355,12 @@
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AG21" s="28"/>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3711,8 +4369,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="K22" s="6"/>
-      <c r="Q22" s="6"/>
+      <c r="L22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
@@ -3723,8 +4380,12 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
-    </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AG22" s="28"/>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3733,8 +4394,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="K23" s="6"/>
-      <c r="Q23" s="6"/>
+      <c r="L23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
@@ -3745,9 +4405,13 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
-      <c r="AT23" s="7"/>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AG23" s="28"/>
+      <c r="AY23" s="7"/>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3756,8 +4420,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="K24" s="6"/>
-      <c r="Q24" s="6"/>
+      <c r="L24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
@@ -3768,8 +4431,12 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
-    </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AG24" s="28"/>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -3778,8 +4445,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="K25" s="6"/>
-      <c r="Q25" s="6"/>
+      <c r="L25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
@@ -3790,8 +4456,12 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AG25" s="28"/>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -3801,14 +4471,14 @@
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="20"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="17"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
-      <c r="Q26" s="18"/>
+      <c r="Q26" s="17"/>
       <c r="R26" s="18"/>
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
@@ -3819,16 +4489,16 @@
       <c r="Y26" s="18"/>
       <c r="Z26" s="18"/>
       <c r="AA26" s="18"/>
-      <c r="AB26" s="17"/>
+      <c r="AB26" s="18"/>
       <c r="AC26" s="18"/>
-      <c r="AD26" s="17"/>
+      <c r="AD26" s="18"/>
       <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="28"/>
       <c r="AH26" s="17"/>
-      <c r="AI26" s="18"/>
-      <c r="AJ26" s="18"/>
-      <c r="AK26" s="18"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
       <c r="AL26" s="18"/>
       <c r="AM26" s="18"/>
       <c r="AN26" s="18"/>
@@ -3837,9 +4507,14 @@
       <c r="AQ26" s="18"/>
       <c r="AR26" s="18"/>
       <c r="AS26" s="18"/>
-      <c r="AT26" s="15"/>
-    </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AT26" s="18"/>
+      <c r="AU26" s="18"/>
+      <c r="AV26" s="18"/>
+      <c r="AW26" s="18"/>
+      <c r="AX26" s="18"/>
+      <c r="AY26" s="15"/>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -3849,14 +4524,14 @@
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="20"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="17"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="18"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
-      <c r="Q27" s="18"/>
+      <c r="Q27" s="17"/>
       <c r="R27" s="18"/>
       <c r="S27" s="18"/>
       <c r="T27" s="18"/>
@@ -3867,16 +4542,16 @@
       <c r="Y27" s="18"/>
       <c r="Z27" s="18"/>
       <c r="AA27" s="18"/>
-      <c r="AB27" s="17"/>
+      <c r="AB27" s="18"/>
       <c r="AC27" s="18"/>
-      <c r="AD27" s="17"/>
+      <c r="AD27" s="18"/>
       <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="28"/>
       <c r="AH27" s="17"/>
-      <c r="AI27" s="18"/>
-      <c r="AJ27" s="18"/>
-      <c r="AK27" s="18"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
       <c r="AL27" s="18"/>
       <c r="AM27" s="18"/>
       <c r="AN27" s="18"/>
@@ -3885,9 +4560,14 @@
       <c r="AQ27" s="18"/>
       <c r="AR27" s="18"/>
       <c r="AS27" s="18"/>
-      <c r="AT27" s="15"/>
-    </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AT27" s="18"/>
+      <c r="AU27" s="18"/>
+      <c r="AV27" s="18"/>
+      <c r="AW27" s="18"/>
+      <c r="AX27" s="18"/>
+      <c r="AY27" s="15"/>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -3897,14 +4577,14 @@
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="20"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="17"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18"/>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
-      <c r="Q28" s="18"/>
+      <c r="Q28" s="17"/>
       <c r="R28" s="18"/>
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
@@ -3915,16 +4595,16 @@
       <c r="Y28" s="18"/>
       <c r="Z28" s="18"/>
       <c r="AA28" s="18"/>
-      <c r="AB28" s="17"/>
+      <c r="AB28" s="18"/>
       <c r="AC28" s="18"/>
-      <c r="AD28" s="17"/>
+      <c r="AD28" s="18"/>
       <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="28"/>
       <c r="AH28" s="17"/>
-      <c r="AI28" s="18"/>
-      <c r="AJ28" s="18"/>
-      <c r="AK28" s="18"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
       <c r="AL28" s="18"/>
       <c r="AM28" s="18"/>
       <c r="AN28" s="18"/>
@@ -3933,8 +4613,13 @@
       <c r="AQ28" s="18"/>
       <c r="AR28" s="18"/>
       <c r="AS28" s="18"/>
-    </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AT28" s="18"/>
+      <c r="AU28" s="18"/>
+      <c r="AV28" s="18"/>
+      <c r="AW28" s="18"/>
+      <c r="AX28" s="18"/>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -3944,14 +4629,14 @@
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="20"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="17"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18"/>
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
       <c r="O29" s="17"/>
       <c r="P29" s="17"/>
-      <c r="Q29" s="18"/>
+      <c r="Q29" s="17"/>
       <c r="R29" s="18"/>
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
@@ -3962,16 +4647,16 @@
       <c r="Y29" s="18"/>
       <c r="Z29" s="18"/>
       <c r="AA29" s="18"/>
-      <c r="AB29" s="17"/>
+      <c r="AB29" s="18"/>
       <c r="AC29" s="18"/>
-      <c r="AD29" s="17"/>
+      <c r="AD29" s="18"/>
       <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="28"/>
       <c r="AH29" s="17"/>
-      <c r="AI29" s="18"/>
-      <c r="AJ29" s="18"/>
-      <c r="AK29" s="18"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
       <c r="AL29" s="18"/>
       <c r="AM29" s="18"/>
       <c r="AN29" s="18"/>
@@ -3980,9 +4665,14 @@
       <c r="AQ29" s="18"/>
       <c r="AR29" s="18"/>
       <c r="AS29" s="18"/>
-      <c r="AT29" s="15"/>
-    </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AT29" s="18"/>
+      <c r="AU29" s="18"/>
+      <c r="AV29" s="18"/>
+      <c r="AW29" s="18"/>
+      <c r="AX29" s="18"/>
+      <c r="AY29" s="15"/>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -3992,8 +4682,8 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="19"/>
-      <c r="K30" s="6"/>
-      <c r="Q30" s="6"/>
+      <c r="J30" s="19"/>
+      <c r="L30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
@@ -4004,9 +4694,13 @@
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
-      <c r="AT30" s="7"/>
-    </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AG30" s="28"/>
+      <c r="AY30" s="7"/>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -4016,8 +4710,8 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="19"/>
-      <c r="K31" s="6"/>
-      <c r="Q31" s="6"/>
+      <c r="J31" s="19"/>
+      <c r="L31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
@@ -4028,9 +4722,13 @@
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
-      <c r="AT31" s="7"/>
-    </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AG31" s="28"/>
+      <c r="AY31" s="7"/>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -4040,8 +4738,8 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="19"/>
-      <c r="K32" s="6"/>
-      <c r="Q32" s="6"/>
+      <c r="J32" s="19"/>
+      <c r="L32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
@@ -4052,9 +4750,13 @@
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
-      <c r="AT32" s="7"/>
-    </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AG32" s="28"/>
+      <c r="AY32" s="7"/>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -4064,8 +4766,8 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="19"/>
-      <c r="K33" s="6"/>
-      <c r="Q33" s="6"/>
+      <c r="J33" s="19"/>
+      <c r="L33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
@@ -4076,9 +4778,13 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
-      <c r="AT33" s="21"/>
-    </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AG33" s="28"/>
+      <c r="AY33" s="21"/>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -4088,8 +4794,8 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="19"/>
-      <c r="K34" s="6"/>
-      <c r="Q34" s="6"/>
+      <c r="J34" s="19"/>
+      <c r="L34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
@@ -4100,9 +4806,13 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
-      <c r="AT34" s="21"/>
-    </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AG34" s="28"/>
+      <c r="AY34" s="21"/>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -4112,8 +4822,8 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="19"/>
-      <c r="K35" s="6"/>
-      <c r="Q35" s="6"/>
+      <c r="J35" s="19"/>
+      <c r="L35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
@@ -4124,9 +4834,13 @@
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
-      <c r="AT35" s="7"/>
-    </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AG35" s="28"/>
+      <c r="AY35" s="7"/>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -4136,8 +4850,8 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="19"/>
-      <c r="K36" s="6"/>
-      <c r="Q36" s="6"/>
+      <c r="J36" s="19"/>
+      <c r="L36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
@@ -4148,9 +4862,13 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
-      <c r="AT36" s="7"/>
-    </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AG36" s="28"/>
+      <c r="AY36" s="7"/>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -4160,9 +4878,8 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="19"/>
-      <c r="K37" s="6"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="6"/>
+      <c r="J37" s="19"/>
+      <c r="L37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
@@ -4173,9 +4890,13 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
-      <c r="AT37" s="7"/>
-    </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AG37" s="28"/>
+      <c r="AY37" s="7"/>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -4185,8 +4906,8 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="19"/>
-      <c r="K38" s="6"/>
-      <c r="Q38" s="6"/>
+      <c r="J38" s="19"/>
+      <c r="L38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
@@ -4197,9 +4918,13 @@
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
-    </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AD38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="28"/>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -4209,8 +4934,8 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="19"/>
-      <c r="K39" s="6"/>
-      <c r="Q39" s="6"/>
+      <c r="J39" s="19"/>
+      <c r="L39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
@@ -4221,8 +4946,12 @@
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
-    </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AG39" s="28"/>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -4232,8 +4961,8 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="19"/>
-      <c r="K40" s="6"/>
-      <c r="Q40" s="6"/>
+      <c r="J40" s="19"/>
+      <c r="L40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
@@ -4244,8 +4973,12 @@
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
-    </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AG40" s="28"/>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -4255,8 +4988,10 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="J41" s="7"/>
+      <c r="AG41" s="28"/>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -4266,8 +5001,10 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="J42" s="7"/>
+      <c r="AG42" s="28"/>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -4277,8 +5014,10 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="J43" s="7"/>
+      <c r="AG43" s="28"/>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -4288,8 +5027,10 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="J44" s="7"/>
+      <c r="AG44" s="28"/>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -4299,8 +5040,10 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="J45" s="7"/>
+      <c r="AG45" s="28"/>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -4310,8 +5053,10 @@
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="J46" s="7"/>
+      <c r="AG46" s="28"/>
+    </row>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -4321,8 +5066,10 @@
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="J47" s="7"/>
+      <c r="AG47" s="28"/>
+    </row>
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -4332,8 +5079,10 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="J48" s="7"/>
+      <c r="AG48" s="28"/>
+    </row>
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -4343,8 +5092,10 @@
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="J49" s="7"/>
+      <c r="AG49" s="28"/>
+    </row>
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -4354,8 +5105,10 @@
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="J50" s="7"/>
+      <c r="AG50" s="28"/>
+    </row>
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -4365,8 +5118,10 @@
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="J51" s="7"/>
+      <c r="AG51" s="28"/>
+    </row>
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -4376,8 +5131,10 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
-    </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="J52" s="7"/>
+      <c r="AG52" s="28"/>
+    </row>
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -4386,8 +5143,10 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
-    </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="J53" s="7"/>
+      <c r="AG53" s="28"/>
+    </row>
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -4397,8 +5156,8 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
-      <c r="K54" s="6"/>
-      <c r="Q54" s="6"/>
+      <c r="J54" s="7"/>
+      <c r="L54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>
@@ -4409,8 +5168,12 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
-    </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="6"/>
+      <c r="AG54" s="28"/>
+    </row>
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -4420,8 +5183,8 @@
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
-      <c r="K55" s="6"/>
-      <c r="Q55" s="6"/>
+      <c r="J55" s="7"/>
+      <c r="L55" s="6"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
@@ -4432,8 +5195,12 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
-    </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AG55" s="28"/>
+    </row>
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -4443,8 +5210,8 @@
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
-      <c r="K56" s="6"/>
-      <c r="Q56" s="6"/>
+      <c r="J56" s="7"/>
+      <c r="L56" s="6"/>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
@@ -4455,8 +5222,12 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
-    </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AG56" s="28"/>
+    </row>
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -4489,7 +5260,7 @@
       <c r="AD57" s="17"/>
       <c r="AE57" s="17"/>
       <c r="AF57" s="17"/>
-      <c r="AG57" s="17"/>
+      <c r="AG57" s="28"/>
       <c r="AH57" s="17"/>
       <c r="AI57" s="17"/>
       <c r="AJ57" s="17"/>
@@ -4502,119 +5273,124 @@
       <c r="AQ57" s="17"/>
       <c r="AR57" s="17"/>
       <c r="AS57" s="17"/>
-      <c r="AT57" s="24"/>
+      <c r="AT57" s="17"/>
+      <c r="AU57" s="17"/>
+      <c r="AV57" s="17"/>
+      <c r="AW57" s="17"/>
+      <c r="AX57" s="17"/>
+      <c r="AY57" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AT57" xr:uid="{8D120C5C-D1E3-40C4-B4D7-C7D7020D0451}"/>
+  <autoFilter ref="A1:AY57" xr:uid="{8D120C5C-D1E3-40C4-B4D7-C7D7020D0451}"/>
   <conditionalFormatting sqref="C58:C1048576 C1:C56">
-    <cfRule type="duplicateValues" dxfId="95" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:G1">
-    <cfRule type="duplicateValues" dxfId="94" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="73"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="86" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="43"/>
+  <conditionalFormatting sqref="K1:L1">
+    <cfRule type="duplicateValues" dxfId="111" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:K6">
-    <cfRule type="duplicateValues" dxfId="77" priority="15"/>
+  <conditionalFormatting sqref="K6:L6">
+    <cfRule type="duplicateValues" dxfId="102" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19:K25">
-    <cfRule type="duplicateValues" dxfId="76" priority="35"/>
+  <conditionalFormatting sqref="K19:L25">
+    <cfRule type="duplicateValues" dxfId="101" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:K26 AB26:AC26">
-    <cfRule type="duplicateValues" dxfId="75" priority="26"/>
+  <conditionalFormatting sqref="K26:L26 AE26:AF26">
+    <cfRule type="duplicateValues" dxfId="100" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28:K28">
-    <cfRule type="duplicateValues" dxfId="74" priority="6"/>
+  <conditionalFormatting sqref="K28:L28">
+    <cfRule type="duplicateValues" dxfId="99" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30:K33">
-    <cfRule type="duplicateValues" dxfId="73" priority="19"/>
+  <conditionalFormatting sqref="K30:L33">
+    <cfRule type="duplicateValues" dxfId="98" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34:K36">
-    <cfRule type="duplicateValues" dxfId="72" priority="18"/>
+  <conditionalFormatting sqref="K34:L36">
+    <cfRule type="duplicateValues" dxfId="97" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37:K37">
-    <cfRule type="duplicateValues" dxfId="71" priority="17"/>
+  <conditionalFormatting sqref="K37:L37">
+    <cfRule type="duplicateValues" dxfId="96" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
-    <cfRule type="duplicateValues" dxfId="70" priority="8"/>
+  <conditionalFormatting sqref="K38:L38">
+    <cfRule type="duplicateValues" dxfId="95" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J39:K39">
-    <cfRule type="duplicateValues" dxfId="69" priority="9"/>
+  <conditionalFormatting sqref="K39:L39">
+    <cfRule type="duplicateValues" dxfId="94" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40:K40">
-    <cfRule type="duplicateValues" dxfId="68" priority="10"/>
+  <conditionalFormatting sqref="K40:L40">
+    <cfRule type="duplicateValues" dxfId="93" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J54:K54">
-    <cfRule type="duplicateValues" dxfId="67" priority="4"/>
+  <conditionalFormatting sqref="K54:L54">
+    <cfRule type="duplicateValues" dxfId="92" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55:K55">
-    <cfRule type="duplicateValues" dxfId="66" priority="3"/>
+  <conditionalFormatting sqref="K55:L55">
+    <cfRule type="duplicateValues" dxfId="91" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1">
-    <cfRule type="duplicateValues" dxfId="65" priority="55"/>
+  <conditionalFormatting sqref="L1">
+    <cfRule type="duplicateValues" dxfId="90" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56">
-    <cfRule type="duplicateValues" dxfId="64" priority="2"/>
+  <conditionalFormatting sqref="L56">
+    <cfRule type="duplicateValues" dxfId="89" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:K1048576 K1:K5 AC38:AC39 K29 K7:K27 K5:L6">
-    <cfRule type="duplicateValues" dxfId="63" priority="22"/>
+  <conditionalFormatting sqref="L58:L1048576 L1:L5 AF38:AF39 L29 L7:L27 L5:M6">
+    <cfRule type="duplicateValues" dxfId="88" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB1">
-    <cfRule type="duplicateValues" dxfId="62" priority="50"/>
+  <conditionalFormatting sqref="AE1">
+    <cfRule type="duplicateValues" dxfId="87" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB1:AC1">
-    <cfRule type="duplicateValues" dxfId="61" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="51"/>
+  <conditionalFormatting sqref="AE1:AF1">
+    <cfRule type="duplicateValues" dxfId="86" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AC2 J7:K18 K5:L6 J3:K5">
-    <cfRule type="duplicateValues" dxfId="54" priority="36"/>
+  <conditionalFormatting sqref="AE2:AF2 K7:L18 L5:M6 K3:L5">
+    <cfRule type="duplicateValues" dxfId="79" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB27:AC27 J27:K27">
-    <cfRule type="duplicateValues" dxfId="53" priority="27"/>
+  <conditionalFormatting sqref="AE27:AF27 K27:L27">
+    <cfRule type="duplicateValues" dxfId="78" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB28:AC28">
-    <cfRule type="duplicateValues" dxfId="52" priority="28"/>
+  <conditionalFormatting sqref="AE28:AF28">
+    <cfRule type="duplicateValues" dxfId="77" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB29:AC29 J29:K29">
-    <cfRule type="duplicateValues" dxfId="51" priority="29"/>
+  <conditionalFormatting sqref="AE29:AF29 K29:L29">
+    <cfRule type="duplicateValues" dxfId="76" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC1">
-    <cfRule type="duplicateValues" dxfId="50" priority="37"/>
+  <conditionalFormatting sqref="AF1">
+    <cfRule type="duplicateValues" dxfId="75" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC6">
-    <cfRule type="duplicateValues" dxfId="49" priority="14"/>
+  <conditionalFormatting sqref="AF6">
+    <cfRule type="duplicateValues" dxfId="74" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC38">
-    <cfRule type="duplicateValues" dxfId="48" priority="23"/>
+  <conditionalFormatting sqref="AF38">
+    <cfRule type="duplicateValues" dxfId="73" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC38:AC39">
-    <cfRule type="duplicateValues" dxfId="47" priority="21"/>
+  <conditionalFormatting sqref="AF38:AF39">
+    <cfRule type="duplicateValues" dxfId="72" priority="21"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{35CA5F4C-EC76-4BAF-A154-28FD229AB29C}"/>
-    <hyperlink ref="O2" r:id="rId2" xr:uid="{5682C1AD-FB9D-4AAD-9720-D9FC3E06F2B7}"/>
-    <hyperlink ref="AG2" r:id="rId3" xr:uid="{03626D1D-4287-4857-BF5D-A6A8D70EC51F}"/>
+    <hyperlink ref="P2" r:id="rId2" xr:uid="{5682C1AD-FB9D-4AAD-9720-D9FC3E06F2B7}"/>
+    <hyperlink ref="AJ2" r:id="rId3" xr:uid="{03626D1D-4287-4857-BF5D-A6A8D70EC51F}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{1A0B751A-EE31-44F8-BE4B-F6918B4B56D5}"/>
     <hyperlink ref="C4" r:id="rId5" xr:uid="{F706650C-E410-4E01-AB01-9A6E74B2CA2F}"/>
     <hyperlink ref="C5" r:id="rId6" xr:uid="{BE061F6A-3915-469F-B564-0792F630E80B}"/>
@@ -4623,13 +5399,13 @@
     <hyperlink ref="C8" r:id="rId9" xr:uid="{1DCECA9C-7EC1-44CE-8D08-87B274779596}"/>
     <hyperlink ref="C9" r:id="rId10" xr:uid="{21ADAF30-7FA3-46CA-A967-D8E497B97F43}"/>
     <hyperlink ref="C10" r:id="rId11" xr:uid="{060BDDC4-A356-4192-9CF6-FBC8534EA411}"/>
-    <hyperlink ref="O3" r:id="rId12" xr:uid="{821CC43C-1313-4580-BDC6-70B8C7B0A4A7}"/>
-    <hyperlink ref="O4" r:id="rId13" xr:uid="{C2F111C0-95C6-4D8F-9C24-E46A71711A78}"/>
-    <hyperlink ref="O5" r:id="rId14" xr:uid="{38AF1568-3BEE-4963-8151-25BBD5DAD574}"/>
-    <hyperlink ref="O6" r:id="rId15" xr:uid="{3B4DBAE5-C9A9-4B9E-8413-857FEB4417F5}"/>
-    <hyperlink ref="O7" r:id="rId16" xr:uid="{CC977BE9-F0BD-4DE9-82C0-D35989737E4F}"/>
-    <hyperlink ref="O8" r:id="rId17" xr:uid="{9C9D1682-1878-4DA4-81B7-B6078F553A8E}"/>
-    <hyperlink ref="O9" r:id="rId18" xr:uid="{FE61339C-4D07-4138-8437-7D6DACCACF33}"/>
+    <hyperlink ref="P3" r:id="rId12" xr:uid="{821CC43C-1313-4580-BDC6-70B8C7B0A4A7}"/>
+    <hyperlink ref="P4" r:id="rId13" xr:uid="{C2F111C0-95C6-4D8F-9C24-E46A71711A78}"/>
+    <hyperlink ref="P5" r:id="rId14" xr:uid="{38AF1568-3BEE-4963-8151-25BBD5DAD574}"/>
+    <hyperlink ref="P6" r:id="rId15" xr:uid="{3B4DBAE5-C9A9-4B9E-8413-857FEB4417F5}"/>
+    <hyperlink ref="P7" r:id="rId16" xr:uid="{CC977BE9-F0BD-4DE9-82C0-D35989737E4F}"/>
+    <hyperlink ref="P8" r:id="rId17" xr:uid="{9C9D1682-1878-4DA4-81B7-B6078F553A8E}"/>
+    <hyperlink ref="P9" r:id="rId18" xr:uid="{FE61339C-4D07-4138-8437-7D6DACCACF33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId19"/>
@@ -4637,6 +5413,1131 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B3A1E7-0A12-427B-8C9E-A9C2830C51A1}">
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1000477320</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="17">
+        <v>3058829527</v>
+      </c>
+      <c r="E2" s="17">
+        <v>3498597548</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I2" s="29">
+        <v>4</v>
+      </c>
+      <c r="J2" s="29">
+        <v>5</v>
+      </c>
+      <c r="K2" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="L2" s="29">
+        <v>5</v>
+      </c>
+      <c r="M2" s="29">
+        <v>4.2</v>
+      </c>
+      <c r="N2" s="29">
+        <v>3.2</v>
+      </c>
+      <c r="O2" s="29">
+        <v>2.6</v>
+      </c>
+      <c r="P2" s="29">
+        <v>3.8</v>
+      </c>
+      <c r="Q2" s="29">
+        <v>3.2</v>
+      </c>
+      <c r="R2" s="29">
+        <v>3.1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>150</v>
+      </c>
+      <c r="T2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1037883695</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3">
+        <v>3117565623</v>
+      </c>
+      <c r="E3">
+        <v>3113735209</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="28">
+        <f ca="1">ROUND(RAND()*5,1)</f>
+        <v>3.1</v>
+      </c>
+      <c r="I3" s="28">
+        <f ca="1">ROUND(RAND()*5,1)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J3" s="28">
+        <f t="shared" ref="J3:R10" ca="1" si="0">ROUND(RAND()*5,1)</f>
+        <v>2.8</v>
+      </c>
+      <c r="K3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="L3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="N3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="O3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S3" t="s">
+        <v>148</v>
+      </c>
+      <c r="T3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1040872361</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4">
+        <v>3244716820</v>
+      </c>
+      <c r="E4">
+        <v>3146538937</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="28">
+        <f ca="1">ROUND(RAND()*5,1)</f>
+        <v>1.7</v>
+      </c>
+      <c r="I4" s="28">
+        <f t="shared" ref="I4:I10" ca="1" si="1">ROUND(RAND()*5,1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="K4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="M4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="N4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="P4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="Q4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="R4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>1040334221</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>3107589894</v>
+      </c>
+      <c r="E5">
+        <v>3025791188</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="28">
+        <f t="shared" ref="H5:H10" ca="1" si="2">ROUND(RAND()*5,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="28">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="K5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="L5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="M5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="N5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="O5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="P5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="R5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1046716109</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6">
+        <v>3243098774</v>
+      </c>
+      <c r="E6">
+        <v>3044155979</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="28">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I6" s="28">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="J6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="M6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="N6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="O6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="P6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="Q6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="R6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="T6" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1020316404</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7">
+        <v>3225962995</v>
+      </c>
+      <c r="E7">
+        <v>3105528456</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="28">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="I7" s="28">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="J7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="L7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="M7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="N7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="O7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="P7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.9</v>
+      </c>
+      <c r="Q7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="R7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1137725488</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8">
+        <v>3294344455</v>
+      </c>
+      <c r="E8">
+        <v>3284344455</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="28">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="I8" s="28">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="K8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="L8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="M8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="N8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="P8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="Q8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="R8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1070753987</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9">
+        <v>3262122233</v>
+      </c>
+      <c r="E9">
+        <v>3295455566</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="28">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="28">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="L9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="M9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="N9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="O9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="P9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="Q9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="R9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1070653287</v>
+      </c>
+      <c r="D10">
+        <v>3249900112</v>
+      </c>
+      <c r="E10">
+        <v>3251011123</v>
+      </c>
+      <c r="F10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="28">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="I10" s="28">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="J10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="K10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="L10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="M10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="N10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="O10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.9</v>
+      </c>
+      <c r="Q10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="R10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1044655071</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="18">
+        <v>1010944104</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="17">
+        <v>3045124420</v>
+      </c>
+      <c r="E12" s="17">
+        <v>3032568220</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I12" s="29">
+        <v>4</v>
+      </c>
+      <c r="J12" s="29">
+        <v>5</v>
+      </c>
+      <c r="K12" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="L12" s="29">
+        <v>5</v>
+      </c>
+      <c r="M12" s="29">
+        <v>4.2</v>
+      </c>
+      <c r="N12" s="29">
+        <v>3.2</v>
+      </c>
+      <c r="O12" s="29">
+        <v>2.6</v>
+      </c>
+      <c r="P12" s="29">
+        <v>3.8</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>3.2</v>
+      </c>
+      <c r="R12" s="29">
+        <v>3.2</v>
+      </c>
+      <c r="S12" t="s">
+        <v>148</v>
+      </c>
+      <c r="T12" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13">
+        <v>1023456789</v>
+      </c>
+      <c r="D13">
+        <v>3101234567</v>
+      </c>
+      <c r="E13">
+        <v>3155551212</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="H13">
+        <f t="shared" ref="H13:R17" ca="1" si="3">ROUND(RAND()*5,1)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.7</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.8</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.4</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S13" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14">
+        <v>1122334455</v>
+      </c>
+      <c r="D14">
+        <v>3112223344</v>
+      </c>
+      <c r="E14">
+        <v>3224445566</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="H14">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.7</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.3</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15">
+        <v>1234567890</v>
+      </c>
+      <c r="D15">
+        <v>3007778899</v>
+      </c>
+      <c r="E15">
+        <v>3129991122</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.4</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.6</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.7</v>
+      </c>
+      <c r="R15">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="18">
+        <v>1098765432</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17">
+        <v>3173344556</v>
+      </c>
+      <c r="E16" s="17">
+        <v>3195566778</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3</v>
+      </c>
+      <c r="I16" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="J16" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.9</v>
+      </c>
+      <c r="K16" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.4</v>
+      </c>
+      <c r="L16" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="M16" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N16" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="O16" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P16" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="Q16" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.4</v>
+      </c>
+      <c r="R16" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="T16" s="18"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:B1">
+    <cfRule type="duplicateValues" dxfId="71" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:B6">
+    <cfRule type="duplicateValues" dxfId="57" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:B11 B5:C6 B3:B4 A3:A5">
+    <cfRule type="duplicateValues" dxfId="56" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:B12">
+    <cfRule type="duplicateValues" dxfId="55" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="54" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B11 C5:C6">
+    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{D514B37C-3DAE-4D16-B5A6-A547A7DBB1D7}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{A27809B6-0143-43A0-A7AF-C4ABF6F41661}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{BCB225AB-2548-481E-9381-463FBB55C8FF}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{0CB5E94D-6F2B-442D-B032-634A69C37B24}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{A89306FD-CD14-4542-98AB-850CEB0C0833}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{08A56EEB-3669-4B0D-AC46-5B302F019E6A}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{9EF2539C-5D0C-4259-AEFE-801473A4AF2B}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{28EF3113-8C25-4D27-82F7-A2C9B1CB8D47}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{86CE8B1E-8882-41D3-98CF-894BC1DCA683}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A2085D-163B-488C-B32E-153A3749A5DB}">
   <dimension ref="A1:AT18"/>
   <sheetViews>
@@ -4903,7 +6804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7770E0F-C9C4-4EC6-A4B3-F9DFDD40B8DD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4917,7 +6818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B442A6E-DC3A-476E-A79F-247074209068}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -4946,7 +6847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347503A2-02D7-4FC9-A789-A64F3D63E68C}">
   <dimension ref="A1:R1"/>
   <sheetViews>

--- a/recursos/EmparejamientoFINAL.xlsx
+++ b/recursos/EmparejamientoFINAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\OneDrive\Documents\7 semestre\Sistema-TuGestor\recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Sistema-TuGestor\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB653F65-4D7A-4929-8D6B-AE8151877B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44994990-2746-4FD1-9077-A5F8535FAD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="670" xr2:uid="{FD9F6918-DD5F-4EFB-A5DA-81B3D2DC95CD}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14640" windowHeight="16305" tabRatio="670" xr2:uid="{FD9F6918-DD5F-4EFB-A5DA-81B3D2DC95CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Emparejamiento" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="169">
   <si>
     <t>1.id</t>
   </si>
@@ -513,15 +513,6 @@
     <t>Colegio San Agustin</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>Prueba3@pruebmail.com</t>
   </si>
   <si>
@@ -589,6 +580,18 @@
   </si>
   <si>
     <t>Institucion camilo vargas</t>
+  </si>
+  <si>
+    <t>80 horas - 1 tutorado</t>
+  </si>
+  <si>
+    <t>40 horas - 1 tutorado</t>
+  </si>
+  <si>
+    <t>80 horas - 2 tutorado</t>
+  </si>
+  <si>
+    <t>100 horas - 1 tutorado</t>
   </si>
 </sst>
 </file>
@@ -2395,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D120C5C-D1E3-40C4-B4D7-C7D7020D0451}">
   <dimension ref="A1:AZ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,7 +2447,7 @@
         <v>23</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>24</v>
@@ -2501,10 +2504,10 @@
         <v>14</v>
       </c>
       <c r="AC1" s="32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AD1" s="33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AE1" s="13" t="s">
         <v>45</v>
@@ -2561,10 +2564,10 @@
         <v>43</v>
       </c>
       <c r="AW1" s="32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AX1" s="33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AY1" s="9" t="s">
         <v>44</v>
@@ -2596,13 +2599,13 @@
         <v>46</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="I2" s="16">
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>70</v>
@@ -2659,10 +2662,10 @@
         <v>3.1</v>
       </c>
       <c r="AC2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AD2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AE2" s="17" t="s">
         <v>130</v>
@@ -2683,7 +2686,7 @@
         <v>73</v>
       </c>
       <c r="AK2" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AL2" s="29">
         <v>2.2999999999999998</v>
@@ -2719,10 +2722,10 @@
         <v>3.2</v>
       </c>
       <c r="AW2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AX2" s="29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AY2" s="21" t="s">
         <v>59</v>
@@ -2751,16 +2754,16 @@
         <v>69</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>80</v>
       </c>
       <c r="J3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K3" t="s">
         <v>112</v>
@@ -2781,7 +2784,7 @@
         <v>121</v>
       </c>
       <c r="Q3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R3" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
@@ -2789,31 +2792,31 @@
       </c>
       <c r="S3" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="T3" s="28">
         <f t="shared" ref="T3:AB10" ca="1" si="0">ROUND(RAND()*5,1)</f>
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="U3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="V3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="W3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="X3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="Z3" s="28">
         <f t="shared" ca="1" si="0"/>
@@ -2821,17 +2824,17 @@
       </c>
       <c r="AA3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="AC3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AD3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AE3" t="s">
         <v>129</v>
@@ -2850,57 +2853,57 @@
       </c>
       <c r="AJ3" s="30"/>
       <c r="AK3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AL3">
         <f t="shared" ref="AL3:AV8" ca="1" si="1">ROUND(RAND()*5,1)</f>
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="AM3">
         <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" ca="1" si="1"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="AN3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="AO3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.8</v>
-      </c>
-      <c r="AP3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="AQ3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="AR3">
+      <c r="AS3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="AT3">
         <f t="shared" ca="1" si="1"/>
         <v>2.4</v>
       </c>
-      <c r="AS3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.1</v>
-      </c>
-      <c r="AT3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="AU3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="AV3">
         <f t="shared" ca="1" si="1"/>
         <v>2.9</v>
       </c>
       <c r="AW3" s="37" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AX3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AY3" s="21" t="s">
         <v>59</v>
@@ -2932,13 +2935,13 @@
         <v>46</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K4" t="s">
         <v>113</v>
@@ -2963,53 +2966,53 @@
       </c>
       <c r="R4" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="S4" s="28">
         <f t="shared" ref="S4:S10" ca="1" si="2">ROUND(RAND()*5,1)</f>
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="T4" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="U4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="V4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="W4" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="U4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="V4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.7</v>
-      </c>
-      <c r="W4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6</v>
-      </c>
       <c r="X4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="Y4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="Z4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="AA4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>1.8</v>
       </c>
       <c r="AB4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>2.4</v>
       </c>
       <c r="AC4" s="28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AD4" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AE4" t="s">
         <v>131</v>
@@ -3018,64 +3021,64 @@
         <v>1122334455</v>
       </c>
       <c r="AG4" s="28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AI4">
         <v>3224445566</v>
       </c>
       <c r="AJ4" s="30"/>
       <c r="AK4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AL4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="AM4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="AN4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="AO4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="AP4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="AQ4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="AR4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="AT4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="AU4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4000000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="AV4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="AW4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AX4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AY4" s="7" t="s">
         <v>57</v>
@@ -3092,7 +3095,7 @@
         <v>94</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>95</v>
@@ -3104,16 +3107,16 @@
         <v>69</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K5" t="s">
         <v>114</v>
@@ -3134,57 +3137,57 @@
         <v>123</v>
       </c>
       <c r="Q5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R5" s="28">
         <f t="shared" ref="R5:R10" ca="1" si="3">ROUND(RAND()*5,1)</f>
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="S5" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="T5" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="U5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="V5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="W5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="X5" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="U5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9</v>
-      </c>
-      <c r="V5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
-      </c>
-      <c r="W5" s="28">
+      <c r="Y5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AA5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="AB5" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="X5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="Y5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="Z5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AA5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.7</v>
-      </c>
-      <c r="AB5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.9000000000000004</v>
-      </c>
       <c r="AC5" s="28" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AD5" s="28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AE5" t="s">
         <v>132</v>
@@ -3193,7 +3196,7 @@
         <v>1234567890</v>
       </c>
       <c r="AG5" s="28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AH5">
         <v>3007778899</v>
@@ -3202,39 +3205,39 @@
         <v>3129991122</v>
       </c>
       <c r="AK5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AL5">
         <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.4</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" ca="1" si="1"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="AM5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AN5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="AO5">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AP5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
-      </c>
       <c r="AQ5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="AR5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="AS5">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="AT5">
         <f t="shared" ca="1" si="1"/>
@@ -3242,17 +3245,17 @@
       </c>
       <c r="AU5">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="AV5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="AW5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AX5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AY5" s="21" t="s">
         <v>59</v>
@@ -3281,16 +3284,16 @@
         <v>75</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K6" t="s">
         <v>115</v>
@@ -3311,57 +3314,57 @@
         <v>124</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R6" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="S6" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="T6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="U6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="V6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>4.7</v>
       </c>
       <c r="W6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="X6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="Y6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AA6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="AB6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="AC6" s="28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AD6" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AE6" t="s">
         <v>133</v>
@@ -3370,7 +3373,7 @@
         <v>1098765432</v>
       </c>
       <c r="AG6" s="28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AH6" s="17">
         <v>3173344556</v>
@@ -3380,57 +3383,57 @@
       </c>
       <c r="AJ6" s="17"/>
       <c r="AK6" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AL6" s="18">
         <f t="shared" ca="1" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM6" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="AN6" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7</v>
+      </c>
+      <c r="AO6" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7</v>
+      </c>
+      <c r="AP6" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AQ6" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="AR6" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AS6" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7</v>
+      </c>
+      <c r="AT6" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="AU6" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="AV6" s="18">
+        <f t="shared" ca="1" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="AM6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.6</v>
-      </c>
-      <c r="AN6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="AO6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AP6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.7</v>
-      </c>
-      <c r="AQ6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="AR6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="AS6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.9</v>
-      </c>
-      <c r="AT6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="AU6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AV6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.8</v>
-      </c>
       <c r="AW6" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AX6" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AY6" s="7" t="s">
         <v>57</v>
@@ -3462,13 +3465,13 @@
         <v>46</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>83</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K7" t="s">
         <v>116</v>
@@ -3493,53 +3496,53 @@
       </c>
       <c r="R7" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S7" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="T7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="U7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="V7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="W7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="X7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="Y7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Z7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AA7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="AB7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AC7" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AD7" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AE7" t="s">
         <v>134</v>
@@ -3548,7 +3551,7 @@
         <v>1000939523</v>
       </c>
       <c r="AG7" s="28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AH7">
         <v>3216677889</v>
@@ -3557,57 +3560,57 @@
         <v>3184455667</v>
       </c>
       <c r="AK7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AL7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="AM7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="AN7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="AO7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AQ7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="AR7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="AS7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AT7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0999999999999996</v>
+        <v>2.4</v>
       </c>
       <c r="AU7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AV7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="AW7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AX7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AY7" s="7" t="s">
         <v>57</v>
@@ -3636,16 +3639,16 @@
         <v>69</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>84</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K8" t="s">
         <v>117</v>
@@ -3666,57 +3669,57 @@
         <v>126</v>
       </c>
       <c r="Q8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R8" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
+        <v>3.7</v>
       </c>
       <c r="S8" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2000000000000002</v>
+        <v>3.5</v>
       </c>
       <c r="T8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="U8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="V8" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="W8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="X8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y8" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="W8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="X8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Y8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
-      </c>
       <c r="Z8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="AA8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="AC8" s="28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AD8" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AE8" t="s">
         <v>135</v>
@@ -3734,57 +3737,57 @@
         <v>3248899001</v>
       </c>
       <c r="AK8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AL8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AM8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="AN8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AO8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="AP8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="AQ8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="AR8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="AS8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="AT8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="AU8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AV8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AX8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AY8" s="15" t="s">
         <v>58</v>
@@ -3816,13 +3819,13 @@
         <v>46</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>85</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K9" t="s">
         <v>118</v>
@@ -3847,53 +3850,53 @@
       </c>
       <c r="R9" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="S9" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="T9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="U9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="V9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="W9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5</v>
+        <v>0.3</v>
       </c>
       <c r="X9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="Y9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Z9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AA9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>1.7</v>
       </c>
       <c r="AB9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AC9" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AD9" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AY9" s="7"/>
     </row>
@@ -3917,16 +3920,16 @@
         <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>119</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>120</v>
@@ -3944,43 +3947,43 @@
         <v>128</v>
       </c>
       <c r="Q10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R10" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S10" s="28">
         <f t="shared" ca="1" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="T10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="U10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="V10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y10" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="T10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.9</v>
-      </c>
-      <c r="U10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.6</v>
-      </c>
-      <c r="V10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="W10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="X10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Y10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
       <c r="Z10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="AA10" s="28">
         <f t="shared" ca="1" si="0"/>
@@ -3988,13 +3991,13 @@
       </c>
       <c r="AB10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="AC10" s="28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AD10" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AY10" s="7"/>
     </row>
@@ -4021,13 +4024,13 @@
         <v>46</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>56</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K11" t="s">
         <v>86</v>
@@ -4084,10 +4087,10 @@
         <v>0</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AD11" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
@@ -5485,10 +5488,10 @@
         <v>14</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="T1" s="33" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -5545,10 +5548,10 @@
         <v>3.1</v>
       </c>
       <c r="S2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="T2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -5572,27 +5575,27 @@
       </c>
       <c r="H3" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="I3" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>4.4000000000000004</v>
+        <v>3.1</v>
       </c>
       <c r="J3" s="28">
         <f t="shared" ref="J3:R10" ca="1" si="0">ROUND(RAND()*5,1)</f>
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="K3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="M3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N3" s="28">
         <f t="shared" ca="1" si="0"/>
@@ -5600,25 +5603,25 @@
       </c>
       <c r="O3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="P3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9000000000000004</v>
+        <v>2</v>
       </c>
       <c r="R3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="S3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="T3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -5642,53 +5645,53 @@
       </c>
       <c r="H4" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="I4" s="28">
         <f t="shared" ref="I4:I10" ca="1" si="1">ROUND(RAND()*5,1)</f>
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="J4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="K4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="L4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="M4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="N4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>3.6</v>
       </c>
       <c r="O4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="R4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0999999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="S4" s="28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="T4" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -5712,53 +5715,53 @@
       </c>
       <c r="H5" s="28">
         <f t="shared" ref="H5:H10" ca="1" si="2">ROUND(RAND()*5,1)</f>
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="I5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="K5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="L5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="M5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="O5" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="K5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="L5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.7</v>
-      </c>
-      <c r="M5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="N5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="O5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
-      </c>
       <c r="P5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="Q5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="R5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="T5" s="28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -5783,53 +5786,53 @@
       <c r="G6" s="17"/>
       <c r="H6" s="28">
         <f t="shared" ca="1" si="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="I6" s="28">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.7</v>
+      </c>
+      <c r="J6" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="I6" s="28">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="J6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
-      </c>
       <c r="K6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="L6" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M6" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>3.7</v>
       </c>
-      <c r="M6" s="28">
+      <c r="N6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="O6" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>3.7</v>
       </c>
-      <c r="N6" s="28">
+      <c r="P6" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="O6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.6</v>
-      </c>
-      <c r="P6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="Q6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="R6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1</v>
+        <v>0.3</v>
       </c>
       <c r="S6" s="28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T6" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -5853,35 +5856,35 @@
       </c>
       <c r="H7" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="J7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="K7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1</v>
+        <v>0.1</v>
       </c>
       <c r="L7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="M7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="N7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="O7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="P7" s="28">
         <f t="shared" ca="1" si="0"/>
@@ -5889,17 +5892,17 @@
       </c>
       <c r="Q7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="R7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="S7" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="T7" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -5923,53 +5926,53 @@
       </c>
       <c r="H8" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="I8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="J8" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="M8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="N8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="O8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="R8" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>3.8</v>
       </c>
-      <c r="K8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="L8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="M8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="N8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.3</v>
-      </c>
-      <c r="P8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7</v>
-      </c>
-      <c r="Q8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="R8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
       <c r="S8" s="28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -5993,53 +5996,53 @@
       </c>
       <c r="H9" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2</v>
+        <v>2.7</v>
       </c>
       <c r="I9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="J9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9000000000000004</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K9" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="M9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="N9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="O9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.9</v>
+      </c>
+      <c r="P9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="Q9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="R9" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>1.7</v>
       </c>
-      <c r="L9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="M9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.9</v>
-      </c>
-      <c r="N9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7</v>
-      </c>
-      <c r="O9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.7</v>
-      </c>
-      <c r="P9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
-      </c>
-      <c r="Q9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="R9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6</v>
-      </c>
       <c r="S9" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="T9" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -6060,53 +6063,53 @@
       </c>
       <c r="H10" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" ca="1" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="J10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="K10" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="J10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.7</v>
-      </c>
-      <c r="K10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.7</v>
-      </c>
       <c r="L10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="M10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="O10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="P10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="Q10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>3.9</v>
       </c>
       <c r="S10" s="28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="T10" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -6165,10 +6168,10 @@
         <v>0</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -6225,10 +6228,10 @@
         <v>3.2</v>
       </c>
       <c r="S12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="T12" s="29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -6246,51 +6249,51 @@
       </c>
       <c r="F13" s="30"/>
       <c r="H13">
-        <f t="shared" ref="H13:R17" ca="1" si="3">ROUND(RAND()*5,1)</f>
-        <v>0.4</v>
+        <f t="shared" ref="H13:R16" ca="1" si="3">ROUND(RAND()*5,1)</f>
+        <v>2.6</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S13" s="37" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -6309,50 +6312,50 @@
       <c r="F14" s="30"/>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4000000000000004</v>
+        <v>3.7</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="S14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -6374,46 +6377,46 @@
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9000000000000004</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5999999999999996</v>
+        <v>1.7</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7</v>
+        <v>4.8</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2999999999999998</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -6434,50 +6437,50 @@
       <c r="G16" s="17"/>
       <c r="H16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="I16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="M16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="P16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="R16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="S16" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T16" s="18"/>
     </row>

--- a/recursos/EmparejamientoFINAL.xlsx
+++ b/recursos/EmparejamientoFINAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Sistema-TuGestor\recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\OneDrive\Documents\7 semestre\Sistema-TuGestor\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44994990-2746-4FD1-9077-A5F8535FAD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F509F03-4B6E-4B48-B986-523A8F555468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14640" windowHeight="16305" tabRatio="670" xr2:uid="{FD9F6918-DD5F-4EFB-A5DA-81B3D2DC95CD}"/>
+    <workbookView xWindow="5115" yWindow="3015" windowWidth="15375" windowHeight="7785" tabRatio="670" xr2:uid="{FD9F6918-DD5F-4EFB-A5DA-81B3D2DC95CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Emparejamiento" sheetId="1" r:id="rId1"/>
@@ -324,9 +324,6 @@
     <t>jecheverry@javeriana.edu.co</t>
   </si>
   <si>
-    <t>312 8314004</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -592,6 +589,9 @@
   </si>
   <si>
     <t>100 horas - 1 tutorado</t>
+  </si>
+  <si>
+    <t>3128314004</t>
   </si>
 </sst>
 </file>
@@ -2398,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D120C5C-D1E3-40C4-B4D7-C7D7020D0451}">
   <dimension ref="A1:AZ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2447,7 +2447,7 @@
         <v>23</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>24</v>
@@ -2504,10 +2504,10 @@
         <v>14</v>
       </c>
       <c r="AC1" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AD1" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE1" s="13" t="s">
         <v>45</v>
@@ -2564,10 +2564,10 @@
         <v>43</v>
       </c>
       <c r="AW1" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AX1" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AY1" s="9" t="s">
         <v>44</v>
@@ -2599,13 +2599,13 @@
         <v>46</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I2" s="16">
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>70</v>
@@ -2662,13 +2662,13 @@
         <v>3.1</v>
       </c>
       <c r="AC2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AE2" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF2" s="18">
         <v>1010944104</v>
@@ -2686,7 +2686,7 @@
         <v>73</v>
       </c>
       <c r="AK2" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AL2" s="29">
         <v>2.2999999999999998</v>
@@ -2722,10 +2722,10 @@
         <v>3.2</v>
       </c>
       <c r="AW2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AX2" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AY2" s="21" t="s">
         <v>59</v>
@@ -2745,7 +2745,7 @@
         <v>78</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>68</v>
@@ -2754,19 +2754,19 @@
         <v>69</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" t="s">
-        <v>145</v>
-      </c>
       <c r="K3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L3" s="6">
         <v>1037883695</v>
@@ -2781,10 +2781,10 @@
         <v>3113735209</v>
       </c>
       <c r="P3" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R3" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
@@ -2792,52 +2792,52 @@
       </c>
       <c r="S3" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="T3" s="28">
         <f t="shared" ref="T3:AB10" ca="1" si="0">ROUND(RAND()*5,1)</f>
+        <v>0.8</v>
+      </c>
+      <c r="U3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="V3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="W3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="X3" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="U3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.7</v>
-      </c>
-      <c r="W3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="X3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.8</v>
-      </c>
       <c r="Y3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Z3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AA3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="AB3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="AC3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AE3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF3">
         <v>1023456789</v>
@@ -2853,57 +2853,57 @@
       </c>
       <c r="AJ3" s="30"/>
       <c r="AK3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL3">
         <f t="shared" ref="AL3:AV8" ca="1" si="1">ROUND(RAND()*5,1)</f>
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="AN3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="AO3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AP3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AR3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="AS3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
+        <v>4.2</v>
       </c>
       <c r="AT3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="AU3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="AV3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="AW3" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AX3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AY3" s="21" t="s">
         <v>59</v>
@@ -2914,19 +2914,19 @@
     </row>
     <row r="4" spans="1:52" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="E4" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>75</v>
@@ -2935,16 +2935,16 @@
         <v>46</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L4" s="6">
         <v>1040872361</v>
@@ -2959,126 +2959,126 @@
         <v>3146538937</v>
       </c>
       <c r="P4" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q4" t="s">
         <v>46</v>
       </c>
       <c r="R4" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="S4" s="28">
         <f t="shared" ref="S4:S10" ca="1" si="2">ROUND(RAND()*5,1)</f>
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="T4" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="U4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="V4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="W4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="X4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="AB4" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="U4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="V4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="W4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="X4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
-      </c>
-      <c r="Y4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.6</v>
-      </c>
-      <c r="Z4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.9</v>
-      </c>
-      <c r="AA4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="AB4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
-      </c>
       <c r="AC4" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AD4" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AE4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF4">
         <v>1122334455</v>
       </c>
       <c r="AG4" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AI4">
         <v>3224445566</v>
       </c>
       <c r="AJ4" s="30"/>
       <c r="AK4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AL4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="AM4">
         <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="AV4">
+        <f t="shared" ca="1" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="AN4">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="AO4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.8</v>
-      </c>
-      <c r="AP4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.3</v>
-      </c>
-      <c r="AQ4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="AR4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AS4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="AT4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="AU4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="AV4">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.3</v>
-      </c>
       <c r="AW4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AX4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AY4" s="7" t="s">
         <v>57</v>
@@ -3089,16 +3089,16 @@
     </row>
     <row r="5" spans="1:52" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>68</v>
@@ -3107,19 +3107,19 @@
         <v>69</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L5">
         <v>1040334221</v>
@@ -3134,69 +3134,69 @@
         <v>3025791188</v>
       </c>
       <c r="P5" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R5" s="28">
         <f t="shared" ref="R5:R10" ca="1" si="3">ROUND(RAND()*5,1)</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="S5" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="T5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="U5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="V5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="W5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="X5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Y5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="Z5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AA5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="AB5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AC5" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD5" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AE5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF5">
         <v>1234567890</v>
       </c>
       <c r="AG5" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AH5">
         <v>3007778899</v>
@@ -3205,57 +3205,57 @@
         <v>3129991122</v>
       </c>
       <c r="AK5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.1</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX5" t="s">
         <v>159</v>
-      </c>
-      <c r="AL5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="AM5">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="AN5">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.4</v>
-      </c>
-      <c r="AO5">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="AP5">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AQ5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="AR5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="AS5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="AT5">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.8</v>
-      </c>
-      <c r="AU5">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.2</v>
-      </c>
-      <c r="AV5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.9</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>160</v>
       </c>
       <c r="AY5" s="21" t="s">
         <v>59</v>
@@ -3272,10 +3272,10 @@
         <v>61</v>
       </c>
       <c r="C6" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>68</v>
@@ -3284,25 +3284,25 @@
         <v>75</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L6" s="6">
         <v>1046716109</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N6">
         <v>3243098774</v>
@@ -3311,69 +3311,69 @@
         <v>3044155979</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R6" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="S6" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="T6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="U6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7</v>
+        <v>0.2</v>
       </c>
       <c r="V6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="W6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="X6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Y6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="Z6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9000000000000004</v>
+        <v>1.9</v>
       </c>
       <c r="AA6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AB6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="AC6" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AD6" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AE6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF6" s="18">
         <v>1098765432</v>
       </c>
       <c r="AG6" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AH6" s="17">
         <v>3173344556</v>
@@ -3383,57 +3383,57 @@
       </c>
       <c r="AJ6" s="17"/>
       <c r="AK6" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="AM6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="AN6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AO6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="AP6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="AQ6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="AR6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="AT6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AU6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="AV6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="AW6" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AX6" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AY6" s="7" t="s">
         <v>57</v>
@@ -3444,19 +3444,19 @@
     </row>
     <row r="7" spans="1:52" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="E7" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>69</v>
@@ -3465,16 +3465,16 @@
         <v>46</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L7" s="6">
         <v>1020316404</v>
@@ -3489,69 +3489,69 @@
         <v>3105528456</v>
       </c>
       <c r="P7" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q7" t="s">
         <v>46</v>
       </c>
       <c r="R7" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="S7" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="T7" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="U7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="V7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="W7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="Z7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="AA7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB7" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="U7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="V7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="W7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="X7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="Y7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Z7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9</v>
-      </c>
-      <c r="AA7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.6</v>
-      </c>
-      <c r="AB7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.9000000000000004</v>
-      </c>
       <c r="AC7" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD7" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AE7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF7">
         <v>1000939523</v>
       </c>
       <c r="AG7" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AH7">
         <v>3216677889</v>
@@ -3560,57 +3560,57 @@
         <v>3184455667</v>
       </c>
       <c r="AK7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AL7">
         <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" ca="1" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="AM7">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.7</v>
-      </c>
       <c r="AN7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="AO7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="AP7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5999999999999996</v>
+        <v>0.9</v>
       </c>
       <c r="AQ7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AR7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="AS7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AT7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="AU7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="AV7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="AW7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AX7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AY7" s="7" t="s">
         <v>57</v>
@@ -3621,16 +3621,16 @@
     </row>
     <row r="8" spans="1:52" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="D8" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>68</v>
@@ -3639,25 +3639,25 @@
         <v>69</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L8" s="6">
         <v>1137725488</v>
       </c>
       <c r="M8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N8">
         <v>3294344455</v>
@@ -3666,69 +3666,69 @@
         <v>3284344455</v>
       </c>
       <c r="P8" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R8" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="S8" s="28">
         <f t="shared" ca="1" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="T8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="U8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="V8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="X8" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="T8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="U8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.9</v>
-      </c>
-      <c r="V8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="W8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.3</v>
-      </c>
-      <c r="X8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
-      </c>
       <c r="Y8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="Z8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="AA8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AB8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="AC8" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AD8" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AE8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF8">
         <v>1928412412</v>
       </c>
       <c r="AG8" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH8">
         <v>3237788990</v>
@@ -3737,57 +3737,57 @@
         <v>3248899001</v>
       </c>
       <c r="AK8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="AM8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AN8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="AO8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="AP8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AQ8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="AR8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="AS8">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="AU8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="AV8">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="AW8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AX8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AY8" s="15" t="s">
         <v>58</v>
@@ -3798,19 +3798,19 @@
     </row>
     <row r="9" spans="1:52" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="E9" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>69</v>
@@ -3819,22 +3819,22 @@
         <v>46</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L9" s="6">
         <v>1070753987</v>
       </c>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N9">
         <v>3262122233</v>
@@ -3843,75 +3843,75 @@
         <v>3295455566</v>
       </c>
       <c r="P9" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q9" t="s">
         <v>46</v>
       </c>
       <c r="R9" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="S9" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="T9" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="U9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="W9" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>2.7</v>
       </c>
-      <c r="U9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.9</v>
-      </c>
-      <c r="V9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
-      </c>
-      <c r="W9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
-      </c>
       <c r="X9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>4.3</v>
       </c>
       <c r="Z9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="AA9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AB9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AC9" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD9" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AY9" s="7"/>
     </row>
     <row r="10" spans="1:52" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="D10" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>68</v>
@@ -3920,19 +3920,19 @@
         <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I10" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="L10" s="6">
         <v>1070653287</v>
@@ -3944,60 +3944,60 @@
         <v>3251011123</v>
       </c>
       <c r="P10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R10" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4000000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="S10" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="T10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="U10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="W10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>3</v>
       </c>
       <c r="X10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Y10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Z10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AA10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="AB10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="AC10" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AD10" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AY10" s="7"/>
     </row>
@@ -4024,16 +4024,16 @@
         <v>46</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>56</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L11" s="6">
         <v>1044655071</v>
@@ -4087,10 +4087,10 @@
         <v>0</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD11" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
@@ -5488,10 +5488,10 @@
         <v>14</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T1" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -5548,15 +5548,15 @@
         <v>3.1</v>
       </c>
       <c r="S2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="6">
         <v>1037883695</v>
@@ -5571,62 +5571,62 @@
         <v>3113735209</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H3" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I3" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="J3" s="28">
         <f t="shared" ref="J3:R10" ca="1" si="0">ROUND(RAND()*5,1)</f>
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="K3" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="N3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="O3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="P3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="R3" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="L3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="M3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.1</v>
-      </c>
-      <c r="O3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="P3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="Q3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
-      </c>
       <c r="S3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="6">
         <v>1040872361</v>
@@ -5641,62 +5641,62 @@
         <v>3146538937</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H4" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="I4" s="28">
         <f t="shared" ref="I4:I10" ca="1" si="1">ROUND(RAND()*5,1)</f>
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="J4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="K4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="L4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="M4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="N4" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="O4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="P4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R4" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="O4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="P4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="Q4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="R4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.3</v>
-      </c>
       <c r="S4" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T4" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5">
         <v>1040334221</v>
@@ -5711,23 +5711,23 @@
         <v>3025791188</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5" s="28">
         <f t="shared" ref="H5:H10" ca="1" si="2">ROUND(RAND()*5,1)</f>
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="I5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="K5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="L5" s="28">
         <f t="shared" ca="1" si="0"/>
@@ -5735,44 +5735,44 @@
       </c>
       <c r="M5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0999999999999996</v>
+        <v>0.9</v>
       </c>
       <c r="N5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="O5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="P5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9</v>
+        <v>0.1</v>
       </c>
       <c r="Q5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="R5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T5" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="6">
         <v>1046716109</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6">
         <v>3243098774</v>
@@ -5781,63 +5781,63 @@
         <v>3044155979</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="I6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="J6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>3.1</v>
       </c>
       <c r="K6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="L6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="N6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Q6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="R6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="S6" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T6" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="6">
         <v>1020316404</v>
@@ -5852,68 +5852,68 @@
         <v>3105528456</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H7" s="28">
         <f t="shared" ca="1" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I7" s="28">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="J7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="K7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="L7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M7" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="I7" s="28">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.7</v>
-      </c>
-      <c r="J7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.9</v>
-      </c>
-      <c r="K7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="L7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="M7" s="28">
+      <c r="N7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="O7" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="N7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.7</v>
-      </c>
-      <c r="O7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9</v>
-      </c>
       <c r="P7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="S7" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T7" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="6">
         <v>1137725488</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8">
         <v>3294344455</v>
@@ -5922,68 +5922,68 @@
         <v>3284344455</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H8" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="I8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L8" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="M8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="N8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="P8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q8" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>3.1</v>
       </c>
-      <c r="M8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="N8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="O8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="Q8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
-      </c>
       <c r="R8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="S8" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="6">
         <v>1070753987</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9">
         <v>3262122233</v>
@@ -5992,62 +5992,62 @@
         <v>3295455566</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H9" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="I9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="J9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="K9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="L9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="M9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="N9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>4.7</v>
       </c>
       <c r="O9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="Q9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="R9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="S9" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T9" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="6">
         <v>1070653287</v>
@@ -6059,62 +6059,62 @@
         <v>3251011123</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H10" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="J10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="K10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L10" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="M10" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>2.9</v>
       </c>
-      <c r="M10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
       <c r="N10" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="O10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="P10" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>3.7</v>
       </c>
-      <c r="O10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="P10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
-      </c>
       <c r="Q10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="R10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="S10" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T10" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="6">
         <v>1044655071</v>
@@ -6168,15 +6168,15 @@
         <v>0</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="18">
         <v>1010944104</v>
@@ -6228,15 +6228,15 @@
         <v>3.2</v>
       </c>
       <c r="S12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T12" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13">
         <v>1023456789</v>
@@ -6250,55 +6250,55 @@
       <c r="F13" s="30"/>
       <c r="H13">
         <f t="shared" ref="H13:R16" ca="1" si="3">ROUND(RAND()*5,1)</f>
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9000000000000004</v>
+        <v>4</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8</v>
+        <v>0.2</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S13" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14">
         <v>1122334455</v>
@@ -6312,39 +6312,39 @@
       <c r="F14" s="30"/>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1000000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="3"/>
@@ -6352,15 +6352,15 @@
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="S14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15">
         <v>1234567890</v>
@@ -6373,55 +6373,55 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9000000000000004</v>
+        <v>2.9</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="3"/>
-        <v>3.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8</v>
+        <v>0.2</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="S15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="18">
         <v>1098765432</v>
@@ -6437,50 +6437,50 @@
       <c r="G16" s="17"/>
       <c r="H16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="I16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6</v>
+        <v>0.1</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1000000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="L16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="M16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="P16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="R16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="S16" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T16" s="18"/>
     </row>

--- a/recursos/EmparejamientoFINAL.xlsx
+++ b/recursos/EmparejamientoFINAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\OneDrive\Documents\7 semestre\Sistema-TuGestor\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F509F03-4B6E-4B48-B986-523A8F555468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B36BCE5-7918-4734-9315-C24F8CF79723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3015" windowWidth="15375" windowHeight="7785" tabRatio="670" xr2:uid="{FD9F6918-DD5F-4EFB-A5DA-81B3D2DC95CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="670" xr2:uid="{FD9F6918-DD5F-4EFB-A5DA-81B3D2DC95CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Emparejamiento" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="176">
   <si>
     <t>1.id</t>
   </si>
@@ -592,6 +592,27 @@
   </si>
   <si>
     <t>3128314004</t>
+  </si>
+  <si>
+    <t>Colegio San Angelo</t>
+  </si>
+  <si>
+    <t>CorreoEjemplo323@gmail.com</t>
+  </si>
+  <si>
+    <t>CorreoEjemplo3333@gmail.com</t>
+  </si>
+  <si>
+    <t>CorreoEjemplo444@gmail.com</t>
+  </si>
+  <si>
+    <t>CorreoEjemplo555@gmail.com</t>
+  </si>
+  <si>
+    <t>CorreoEjemplo666@gmail.com</t>
+  </si>
+  <si>
+    <t>CorreoEjemplo777@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -966,26 +987,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1046,6 +1047,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1056,6 +1077,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1066,21 +1097,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1106,6 +1127,226 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1136,6 +1377,106 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1156,146 +1497,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1336,6 +1537,126 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1346,96 +1667,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1446,6 +1677,86 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1456,6 +1767,156 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1481,446 +1942,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2398,8 +2419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D120C5C-D1E3-40C4-B4D7-C7D7020D0451}">
   <dimension ref="A1:AZ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2788,47 +2809,47 @@
       </c>
       <c r="R3" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="S3" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>3.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="T3" s="28">
         <f t="shared" ref="T3:AB10" ca="1" si="0">ROUND(RAND()*5,1)</f>
+        <v>0.9</v>
+      </c>
+      <c r="U3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="Y3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="Z3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AA3" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="U3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7</v>
-      </c>
-      <c r="V3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7</v>
-      </c>
-      <c r="W3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.1</v>
-      </c>
-      <c r="X3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="Y3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="Z3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AA3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
-      </c>
       <c r="AB3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="AC3" t="s">
         <v>144</v>
@@ -2851,53 +2872,55 @@
       <c r="AI3">
         <v>3155551212</v>
       </c>
-      <c r="AJ3" s="30"/>
+      <c r="AJ3" s="27" t="s">
+        <v>170</v>
+      </c>
       <c r="AK3" t="s">
         <v>158</v>
       </c>
       <c r="AL3">
         <f t="shared" ref="AL3:AV8" ca="1" si="1">ROUND(RAND()*5,1)</f>
-        <v>1.1000000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="AM3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="AN3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="AO3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6</v>
+        <v>0.1</v>
       </c>
       <c r="AP3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="AR3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AS3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="AT3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="AV3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="AW3" s="37" t="s">
         <v>144</v>
@@ -2966,47 +2989,47 @@
       </c>
       <c r="R4" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>0.3</v>
+        <v>4.8</v>
       </c>
       <c r="S4" s="28">
         <f t="shared" ref="S4:S10" ca="1" si="2">ROUND(RAND()*5,1)</f>
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="T4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="U4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="V4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="X4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Y4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="Z4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="AA4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="AB4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="AC4" s="28" t="s">
         <v>153</v>
@@ -3023,56 +3046,61 @@
       <c r="AG4" s="28" t="s">
         <v>160</v>
       </c>
+      <c r="AH4">
+        <v>3112223344</v>
+      </c>
       <c r="AI4">
         <v>3224445566</v>
       </c>
-      <c r="AJ4" s="30"/>
+      <c r="AJ4" s="27" t="s">
+        <v>171</v>
+      </c>
       <c r="AK4" t="s">
         <v>157</v>
       </c>
       <c r="AL4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="AM4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AO4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AP4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="AQ4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="AR4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="AT4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="AU4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="AV4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AW4" t="s">
         <v>147</v>
@@ -3141,47 +3169,47 @@
       </c>
       <c r="R5" s="28">
         <f t="shared" ref="R5:R10" ca="1" si="3">ROUND(RAND()*5,1)</f>
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S5" s="28">
         <f t="shared" ca="1" si="2"/>
+        <v>2.6</v>
+      </c>
+      <c r="T5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="U5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="V5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="T5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="U5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.8</v>
-      </c>
-      <c r="V5" s="28">
+      <c r="Y5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="Z5" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="W5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="X5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="Y5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="Z5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
       <c r="AA5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="AB5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="AC5" s="28" t="s">
         <v>146</v>
@@ -3204,52 +3232,55 @@
       <c r="AI5">
         <v>3129991122</v>
       </c>
+      <c r="AJ5" s="27" t="s">
+        <v>172</v>
+      </c>
       <c r="AK5" t="s">
         <v>158</v>
       </c>
       <c r="AL5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="AM5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="AN5">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="AO5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>2.6</v>
       </c>
       <c r="AP5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="AQ5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="AR5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AS5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="AT5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="AU5">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AW5" t="s">
         <v>145</v>
@@ -3318,47 +3349,47 @@
       </c>
       <c r="R6" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3</v>
+        <v>0.3</v>
       </c>
       <c r="S6" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="T6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="U6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>3.6</v>
       </c>
       <c r="V6" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="W6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="X6" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="W6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="X6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.9000000000000004</v>
-      </c>
       <c r="Y6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="Z6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AA6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AB6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AC6" s="28" t="s">
         <v>151</v>
@@ -3381,53 +3412,55 @@
       <c r="AI6" s="17">
         <v>3195566778</v>
       </c>
-      <c r="AJ6" s="17"/>
+      <c r="AJ6" s="27" t="s">
+        <v>173</v>
+      </c>
       <c r="AK6" s="17" t="s">
         <v>158</v>
       </c>
       <c r="AL6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4</v>
+        <v>0.1</v>
       </c>
       <c r="AM6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="AN6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AO6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="AP6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="AQ6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="AR6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AS6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="AT6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="AU6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="AV6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="AW6" s="18" t="s">
         <v>152</v>
@@ -3496,47 +3529,47 @@
       </c>
       <c r="R7" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="S7" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="T7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="U7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="V7" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="X7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="Z7" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>3.4</v>
       </c>
-      <c r="W7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="Y7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="Z7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
-      </c>
       <c r="AA7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="AB7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AC7" s="28" t="s">
         <v>145</v>
@@ -3564,47 +3597,47 @@
       </c>
       <c r="AL7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AM7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="AN7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="AO7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="AP7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="AQ7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0999999999999996</v>
+        <v>1.2</v>
       </c>
       <c r="AR7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="AS7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AT7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AU7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="AV7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AW7" t="s">
         <v>144</v>
@@ -3673,47 +3706,47 @@
       </c>
       <c r="R8" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="S8" s="28">
         <f t="shared" ca="1" si="2"/>
+        <v>3.4</v>
+      </c>
+      <c r="T8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="U8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="V8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="W8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="Y8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="Z8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="AA8" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="T8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="U8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="V8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="X8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="Y8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="Z8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="AA8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
       <c r="AB8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="AC8" s="28" t="s">
         <v>153</v>
@@ -3741,47 +3774,47 @@
       </c>
       <c r="AL8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AM8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="AN8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AO8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="AP8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="AQ8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="AR8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="AS8">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="AU8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="AV8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7</v>
+        <v>0.3</v>
       </c>
       <c r="AW8" t="s">
         <v>152</v>
@@ -3850,47 +3883,47 @@
       </c>
       <c r="R9" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="S9" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>4.5999999999999996</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="T9" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="U9" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>3.4</v>
       </c>
-      <c r="U9" s="28">
+      <c r="V9" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="V9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.8</v>
-      </c>
       <c r="W9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="X9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="Y9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="Z9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AA9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="AB9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6</v>
+        <v>0.2</v>
       </c>
       <c r="AC9" s="28" t="s">
         <v>145</v>
@@ -3937,6 +3970,9 @@
       <c r="L10" s="6">
         <v>1070653287</v>
       </c>
+      <c r="M10" t="s">
+        <v>169</v>
+      </c>
       <c r="N10">
         <v>3249900112</v>
       </c>
@@ -3951,47 +3987,47 @@
       </c>
       <c r="R10" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="S10" s="28">
         <f t="shared" ca="1" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="U10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="V10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="W10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="X10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="Z10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="AB10" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>4.3</v>
-      </c>
-      <c r="T10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.3</v>
-      </c>
-      <c r="U10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="W10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="X10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Y10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="Z10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="AA10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
-      </c>
-      <c r="AB10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.7</v>
       </c>
       <c r="AC10" s="28" t="s">
         <v>153</v>
@@ -5289,25 +5325,25 @@
     <cfRule type="duplicateValues" dxfId="120" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:G1">
-    <cfRule type="duplicateValues" dxfId="119" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:L1">
-    <cfRule type="duplicateValues" dxfId="111" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="39"/>
     <cfRule type="duplicateValues" dxfId="110" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="44"/>
     <cfRule type="duplicateValues" dxfId="106" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
     <cfRule type="duplicateValues" dxfId="102" priority="15"/>
@@ -5358,13 +5394,13 @@
     <cfRule type="duplicateValues" dxfId="87" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1:AF1">
-    <cfRule type="duplicateValues" dxfId="86" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE2:AF2 K7:L18 L5:M6 K3:L5">
     <cfRule type="duplicateValues" dxfId="79" priority="36"/>
@@ -5393,34 +5429,38 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{35CA5F4C-EC76-4BAF-A154-28FD229AB29C}"/>
     <hyperlink ref="P2" r:id="rId2" xr:uid="{5682C1AD-FB9D-4AAD-9720-D9FC3E06F2B7}"/>
-    <hyperlink ref="AJ2" r:id="rId3" xr:uid="{03626D1D-4287-4857-BF5D-A6A8D70EC51F}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{1A0B751A-EE31-44F8-BE4B-F6918B4B56D5}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{F706650C-E410-4E01-AB01-9A6E74B2CA2F}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{BE061F6A-3915-469F-B564-0792F630E80B}"/>
-    <hyperlink ref="C6" r:id="rId7" xr:uid="{3383862E-8008-491B-B687-2194D47D7889}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{FB307F13-8411-4B19-998F-8DE8B7D4F196}"/>
-    <hyperlink ref="C8" r:id="rId9" xr:uid="{1DCECA9C-7EC1-44CE-8D08-87B274779596}"/>
-    <hyperlink ref="C9" r:id="rId10" xr:uid="{21ADAF30-7FA3-46CA-A967-D8E497B97F43}"/>
-    <hyperlink ref="C10" r:id="rId11" xr:uid="{060BDDC4-A356-4192-9CF6-FBC8534EA411}"/>
-    <hyperlink ref="P3" r:id="rId12" xr:uid="{821CC43C-1313-4580-BDC6-70B8C7B0A4A7}"/>
-    <hyperlink ref="P4" r:id="rId13" xr:uid="{C2F111C0-95C6-4D8F-9C24-E46A71711A78}"/>
-    <hyperlink ref="P5" r:id="rId14" xr:uid="{38AF1568-3BEE-4963-8151-25BBD5DAD574}"/>
-    <hyperlink ref="P6" r:id="rId15" xr:uid="{3B4DBAE5-C9A9-4B9E-8413-857FEB4417F5}"/>
-    <hyperlink ref="P7" r:id="rId16" xr:uid="{CC977BE9-F0BD-4DE9-82C0-D35989737E4F}"/>
-    <hyperlink ref="P8" r:id="rId17" xr:uid="{9C9D1682-1878-4DA4-81B7-B6078F553A8E}"/>
-    <hyperlink ref="P9" r:id="rId18" xr:uid="{FE61339C-4D07-4138-8437-7D6DACCACF33}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{1A0B751A-EE31-44F8-BE4B-F6918B4B56D5}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{F706650C-E410-4E01-AB01-9A6E74B2CA2F}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{BE061F6A-3915-469F-B564-0792F630E80B}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{3383862E-8008-491B-B687-2194D47D7889}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{FB307F13-8411-4B19-998F-8DE8B7D4F196}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{1DCECA9C-7EC1-44CE-8D08-87B274779596}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{21ADAF30-7FA3-46CA-A967-D8E497B97F43}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{060BDDC4-A356-4192-9CF6-FBC8534EA411}"/>
+    <hyperlink ref="P3" r:id="rId11" xr:uid="{821CC43C-1313-4580-BDC6-70B8C7B0A4A7}"/>
+    <hyperlink ref="P4" r:id="rId12" xr:uid="{C2F111C0-95C6-4D8F-9C24-E46A71711A78}"/>
+    <hyperlink ref="P5" r:id="rId13" xr:uid="{38AF1568-3BEE-4963-8151-25BBD5DAD574}"/>
+    <hyperlink ref="P6" r:id="rId14" xr:uid="{3B4DBAE5-C9A9-4B9E-8413-857FEB4417F5}"/>
+    <hyperlink ref="P7" r:id="rId15" xr:uid="{CC977BE9-F0BD-4DE9-82C0-D35989737E4F}"/>
+    <hyperlink ref="P8" r:id="rId16" xr:uid="{9C9D1682-1878-4DA4-81B7-B6078F553A8E}"/>
+    <hyperlink ref="P9" r:id="rId17" xr:uid="{FE61339C-4D07-4138-8437-7D6DACCACF33}"/>
+    <hyperlink ref="AJ2" r:id="rId18" xr:uid="{24BE68D4-CF69-482F-8590-D2EC761E3BC3}"/>
+    <hyperlink ref="AJ3" r:id="rId19" xr:uid="{576E65A5-0272-436C-91FD-0F782701E87C}"/>
+    <hyperlink ref="AJ4" r:id="rId20" xr:uid="{50D801F7-58E9-4DCD-A520-A64B1CF0A33D}"/>
+    <hyperlink ref="AJ5" r:id="rId21" xr:uid="{04AB1EB0-A863-49DD-918E-75891F10C075}"/>
+    <hyperlink ref="AJ6" r:id="rId22" xr:uid="{6D014992-1C26-47CC-BB15-EF707E6C3A99}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId19"/>
+  <legacyDrawing r:id="rId23"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B3A1E7-0A12-427B-8C9E-A9C2830C51A1}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="F1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5575,47 +5615,47 @@
       </c>
       <c r="H3" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>2.2999999999999998</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I3" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="28">
         <f t="shared" ref="J3:R10" ca="1" si="0">ROUND(RAND()*5,1)</f>
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="K3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="L3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="M3" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N3" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="N3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
-      </c>
       <c r="O3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="R3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="S3" t="s">
         <v>144</v>
@@ -5645,27 +5685,27 @@
       </c>
       <c r="H4" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="I4" s="28">
         <f t="shared" ref="I4:I10" ca="1" si="1">ROUND(RAND()*5,1)</f>
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="J4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="K4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="M4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="N4" s="28">
         <f t="shared" ca="1" si="0"/>
@@ -5673,19 +5713,19 @@
       </c>
       <c r="O4" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="P4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
-      </c>
       <c r="Q4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="R4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="S4" s="28" t="s">
         <v>153</v>
@@ -5719,43 +5759,43 @@
       </c>
       <c r="I5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="J5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="K5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="L5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="M5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="N5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="O5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="P5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="S5" s="28" t="s">
         <v>146</v>
@@ -5786,7 +5826,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="I6" s="28">
         <f t="shared" ca="1" si="1"/>
@@ -5794,39 +5834,39 @@
       </c>
       <c r="J6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="K6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="M6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="O6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="P6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9000000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="Q6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="R6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="S6" s="28" t="s">
         <v>151</v>
@@ -5856,15 +5896,15 @@
       </c>
       <c r="H7" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="I7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3</v>
+        <v>2.8</v>
       </c>
       <c r="J7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="K7" s="28">
         <f t="shared" ca="1" si="0"/>
@@ -5872,27 +5912,27 @@
       </c>
       <c r="L7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5999999999999996</v>
+        <v>3</v>
       </c>
       <c r="M7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="N7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="P7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R7" s="28">
         <f t="shared" ca="1" si="0"/>
@@ -5926,47 +5966,47 @@
       </c>
       <c r="H8" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="I8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="K8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5999999999999996</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="M8" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="28">
+        <f ca="1">ROUND(RAND()*5,1)</f>
         <v>3.3</v>
       </c>
-      <c r="N8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
-      </c>
       <c r="P8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="R8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S8" s="28" t="s">
         <v>153</v>
@@ -5996,47 +6036,47 @@
       </c>
       <c r="H9" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="I9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="J9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8</v>
+        <v>0.1</v>
       </c>
       <c r="K9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="L9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="N9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="O9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="R9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="S9" s="28" t="s">
         <v>145</v>
@@ -6052,6 +6092,9 @@
       <c r="B10" s="6">
         <v>1070653287</v>
       </c>
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
       <c r="D10">
         <v>3249900112</v>
       </c>
@@ -6063,47 +6106,47 @@
       </c>
       <c r="H10" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="J10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="K10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L10" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="M10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="N10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="O10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="Q10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="R10" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>4.7</v>
-      </c>
-      <c r="M10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.9</v>
-      </c>
-      <c r="N10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="O10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="P10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.7</v>
-      </c>
-      <c r="Q10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="R10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
       </c>
       <c r="S10" s="28" t="s">
         <v>153</v>
@@ -6241,59 +6284,67 @@
       <c r="B13">
         <v>1023456789</v>
       </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
       <c r="D13">
         <v>3101234567</v>
       </c>
       <c r="E13">
         <v>3155551212</v>
       </c>
-      <c r="F13" s="30"/>
+      <c r="F13" s="27" t="s">
+        <v>170</v>
+      </c>
       <c r="H13">
-        <f t="shared" ref="H13:R16" ca="1" si="3">ROUND(RAND()*5,1)</f>
-        <v>4.5</v>
+        <f t="shared" ref="H13:R18" ca="1" si="3">ROUND(RAND()*5,1)</f>
+        <v>1.7</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="3"/>
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4000000000000004</v>
+        <v>2.8</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="S13" s="37" t="s">
         <v>144</v>
+      </c>
+      <c r="T13" s="29" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -6303,20 +6354,25 @@
       <c r="B14">
         <v>1122334455</v>
       </c>
+      <c r="C14" s="28" t="s">
+        <v>160</v>
+      </c>
       <c r="D14">
         <v>3112223344</v>
       </c>
       <c r="E14">
         <v>3224445566</v>
       </c>
-      <c r="F14" s="30"/>
+      <c r="F14" s="27" t="s">
+        <v>171</v>
+      </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
@@ -6324,38 +6380,41 @@
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="S14" t="s">
         <v>147</v>
+      </c>
+      <c r="T14" s="29" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -6365,58 +6424,67 @@
       <c r="B15">
         <v>1234567890</v>
       </c>
+      <c r="C15" s="28" t="s">
+        <v>162</v>
+      </c>
       <c r="D15">
         <v>3007778899</v>
       </c>
       <c r="E15">
         <v>3129991122</v>
       </c>
+      <c r="F15" s="27" t="s">
+        <v>172</v>
+      </c>
       <c r="H15">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4000000000000004</v>
+        <v>3.1</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6</v>
+        <v>0.3</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="3"/>
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="S15" t="s">
         <v>145</v>
+      </c>
+      <c r="T15" s="29" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -6426,63 +6494,209 @@
       <c r="B16" s="18">
         <v>1098765432</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="28" t="s">
+        <v>161</v>
+      </c>
       <c r="D16" s="17">
         <v>3173344556</v>
       </c>
       <c r="E16" s="17">
         <v>3195566778</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="27" t="s">
+        <v>173</v>
+      </c>
       <c r="G16" s="17"/>
       <c r="H16" s="18">
         <f t="shared" ca="1" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.6</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.8</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ca="1" si="3"/>
         <v>3.2</v>
       </c>
-      <c r="I16" s="18">
+      <c r="S16" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="T16" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17">
+        <v>1000939523</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17">
+        <v>3216677889</v>
+      </c>
+      <c r="E17">
+        <v>3184455667</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="J16" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="K16" s="18">
+        <v>4</v>
+      </c>
+      <c r="I17">
         <f t="shared" ca="1" si="3"/>
         <v>3.8</v>
       </c>
-      <c r="L16" s="18">
+      <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9</v>
-      </c>
-      <c r="M16" s="18">
+        <v>4.3</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.3</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="N17">
         <f t="shared" ca="1" si="3"/>
         <v>3.1</v>
       </c>
-      <c r="N16" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.4</v>
-      </c>
-      <c r="O16" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P16" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.5</v>
-      </c>
-      <c r="Q16" s="18">
+      <c r="O17">
         <f t="shared" ca="1" si="3"/>
         <v>3.8</v>
       </c>
-      <c r="R16" s="18">
+      <c r="P17">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4</v>
-      </c>
-      <c r="S16" s="18" t="s">
+        <v>1.8</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="S17" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="T16" s="18"/>
+      <c r="T17" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18">
+        <v>1928412412</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18">
+        <v>3237788990</v>
+      </c>
+      <c r="E18">
+        <v>3248899001</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="I18" s="18">
+        <f ca="1">ROUND(RAND()*5,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J18" s="18">
+        <f ca="1">ROUND(RAND()*5,1)</f>
+        <v>4.5</v>
+      </c>
+      <c r="K18" s="18">
+        <f ca="1">ROUND(RAND()*5,1)</f>
+        <v>2.8</v>
+      </c>
+      <c r="L18" s="18">
+        <f ca="1">ROUND(RAND()*5,1)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M18" s="18">
+        <f ca="1">ROUND(RAND()*5,1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="N18" s="18">
+        <f ca="1">ROUND(RAND()*5,1)</f>
+        <v>1.9</v>
+      </c>
+      <c r="O18" s="18">
+        <f ca="1">ROUND(RAND()*5,1)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P18" s="18">
+        <f ca="1">ROUND(RAND()*5,1)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q18" s="18">
+        <f ca="1">ROUND(RAND()*5,1)</f>
+        <v>0.7</v>
+      </c>
+      <c r="R18" s="18">
+        <f ca="1">ROUND(RAND()*5,1)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S18" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="T18" s="29" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
@@ -6534,9 +6748,16 @@
     <hyperlink ref="F8" r:id="rId7" xr:uid="{9EF2539C-5D0C-4259-AEFE-801473A4AF2B}"/>
     <hyperlink ref="F9" r:id="rId8" xr:uid="{28EF3113-8C25-4D27-82F7-A2C9B1CB8D47}"/>
     <hyperlink ref="F12" r:id="rId9" xr:uid="{86CE8B1E-8882-41D3-98CF-894BC1DCA683}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{3D890F57-5D7C-4E65-85D4-00CADB43EE64}"/>
+    <hyperlink ref="F14" r:id="rId11" xr:uid="{0B72E832-BAC4-4EE8-934C-306B979BFB8D}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{23EB530F-65DC-47A9-A53C-F6A7C9B78C34}"/>
+    <hyperlink ref="F16" r:id="rId13" xr:uid="{10443379-01B0-4414-8F08-13C234E0FE03}"/>
+    <hyperlink ref="F17:F18" r:id="rId14" display="CorreoEjemplo555@gmail.com" xr:uid="{BBA3B62B-41AA-4B4D-B220-5FEE22909FF5}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{9F52F163-52EC-4037-9214-AFB274DA45DA}"/>
+    <hyperlink ref="F18" r:id="rId16" xr:uid="{10C3BEAF-34A4-4A62-8C36-9188D2826DA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId10"/>
+  <legacyDrawing r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -6771,19 +6992,19 @@
     <cfRule type="duplicateValues" dxfId="33" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:G1">
-    <cfRule type="duplicateValues" dxfId="32" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="30" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
     <cfRule type="duplicateValues" dxfId="21" priority="37"/>
@@ -6792,13 +7013,13 @@
     <cfRule type="duplicateValues" dxfId="20" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1:AC1">
-    <cfRule type="duplicateValues" dxfId="19" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1">
     <cfRule type="duplicateValues" dxfId="12" priority="19"/>

--- a/recursos/EmparejamientoFINAL.xlsx
+++ b/recursos/EmparejamientoFINAL.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\OneDrive\Documents\7 semestre\Sistema-TuGestor\recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Sistema-TuGestor\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B36BCE5-7918-4734-9315-C24F8CF79723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C333FCF7-D9F5-4417-979A-464BD90ED6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="670" xr2:uid="{FD9F6918-DD5F-4EFB-A5DA-81B3D2DC95CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="670" xr2:uid="{FD9F6918-DD5F-4EFB-A5DA-81B3D2DC95CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Emparejamiento" sheetId="1" r:id="rId1"/>
@@ -29,17 +29,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -52,10 +41,19 @@
   <commentList>
     <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{1CDBB0FC-D22E-4D10-A2DB-DC4D443F4280}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Tuvo problemas de salud y no se ha contactado a las tutorías, pendiente respuesta para avisar al tutor</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -70,10 +68,19 @@
   <commentList>
     <comment ref="A12" authorId="0" shapeId="0" xr:uid="{B30B35B7-16C6-42C1-8BFB-C43D8A401A3B}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Tuvo problemas de salud y no se ha contactado a las tutorías, pendiente respuesta para avisar al tutor</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -987,6 +994,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1047,26 +1074,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1077,16 +1084,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1097,6 +1094,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1107,6 +1154,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1127,6 +1184,146 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1167,151 +1364,121 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1337,6 +1504,146 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1377,86 +1684,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1467,6 +1694,76 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1477,6 +1774,126 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1497,6 +1914,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1507,156 +1934,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1672,276 +1949,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2420,7 +2427,7 @@
   <dimension ref="A1:AZ57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,48 +2815,47 @@
         <v>143</v>
       </c>
       <c r="R3" s="28">
-        <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="S3" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>4.9000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="T3" s="28">
         <f t="shared" ref="T3:AB10" ca="1" si="0">ROUND(RAND()*5,1)</f>
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="U3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="V3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="X3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="Y3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Z3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>4.7</v>
       </c>
       <c r="AA3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="AB3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="AC3" t="s">
         <v>144</v>
@@ -2880,11 +2886,11 @@
       </c>
       <c r="AL3">
         <f t="shared" ref="AL3:AV8" ca="1" si="1">ROUND(RAND()*5,1)</f>
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AM3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="AN3">
         <f t="shared" ca="1" si="1"/>
@@ -2892,35 +2898,35 @@
       </c>
       <c r="AO3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
+        <v>2.6</v>
       </c>
       <c r="AP3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="AQ3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
       <c r="AR3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="AS3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="AT3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="AU3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="AV3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="AW3" s="37" t="s">
         <v>144</v>
@@ -2989,47 +2995,47 @@
       </c>
       <c r="R4" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="S4" s="28">
         <f t="shared" ref="S4:S10" ca="1" si="2">ROUND(RAND()*5,1)</f>
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="T4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="U4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="V4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9000000000000004</v>
+        <v>1.9</v>
       </c>
       <c r="W4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="X4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9000000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="Y4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="Z4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>4.5</v>
       </c>
       <c r="AA4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AB4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="AC4" s="28" t="s">
         <v>153</v>
@@ -3060,47 +3066,47 @@
       </c>
       <c r="AL4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AN4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="AO4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2999999999999998</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AP4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="AQ4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="AR4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="AS4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="AT4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AU4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="AV4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2999999999999998</v>
+        <v>3.9</v>
       </c>
       <c r="AW4" t="s">
         <v>147</v>
@@ -3169,47 +3175,47 @@
       </c>
       <c r="R5" s="28">
         <f t="shared" ref="R5:R10" ca="1" si="3">ROUND(RAND()*5,1)</f>
-        <v>4.0999999999999996</v>
+        <v>2.8</v>
       </c>
       <c r="S5" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="T5" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="U5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V5" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="U5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
-      </c>
-      <c r="V5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
       <c r="W5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Y5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Z5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="AA5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="AB5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="AC5" s="28" t="s">
         <v>146</v>
@@ -3240,27 +3246,27 @@
       </c>
       <c r="AL5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="AM5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="AN5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AO5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AP5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
+        <v>3.9</v>
       </c>
       <c r="AQ5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="AR5">
         <f t="shared" ca="1" si="1"/>
@@ -3268,19 +3274,19 @@
       </c>
       <c r="AS5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU5">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AV5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="AW5" t="s">
         <v>145</v>
@@ -3349,47 +3355,47 @@
       </c>
       <c r="R6" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="S6" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="T6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="U6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="V6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="W6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="X6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="Y6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0999999999999996</v>
+        <v>2.4</v>
       </c>
       <c r="AA6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0999999999999996</v>
+        <v>3.1</v>
       </c>
       <c r="AB6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="AC6" s="28" t="s">
         <v>151</v>
@@ -3420,47 +3426,47 @@
       </c>
       <c r="AL6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AM6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="AN6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="AO6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="AP6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="AQ6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="AR6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AS6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="AT6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="AU6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="AV6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="AW6" s="18" t="s">
         <v>152</v>
@@ -3529,47 +3535,47 @@
       </c>
       <c r="R7" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="S7" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="T7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="U7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="V7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="W7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7</v>
+        <v>0.2</v>
       </c>
       <c r="X7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="Y7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="Z7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AA7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="AB7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="AC7" s="28" t="s">
         <v>145</v>
@@ -3597,47 +3603,47 @@
       </c>
       <c r="AL7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AM7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="AN7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AO7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="AP7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="AQ7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="AR7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AS7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="AT7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AU7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="AV7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AW7" t="s">
         <v>144</v>
@@ -3706,39 +3712,39 @@
       </c>
       <c r="R8" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="S8" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="T8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="U8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="V8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
+        <v>0.1</v>
       </c>
       <c r="W8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="X8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="Y8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="Z8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="AA8" s="28">
         <f t="shared" ca="1" si="0"/>
@@ -3746,7 +3752,7 @@
       </c>
       <c r="AB8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="AC8" s="28" t="s">
         <v>153</v>
@@ -3774,47 +3780,47 @@
       </c>
       <c r="AL8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="AM8">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="AN8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="AO8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="AP8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AQ8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="AR8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="AS8">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AT8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="AU8">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="AV8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="AW8" t="s">
         <v>152</v>
@@ -3883,47 +3889,47 @@
       </c>
       <c r="R9" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="S9" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="T9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="U9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="V9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="W9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="X9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="Z9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>1.7</v>
       </c>
       <c r="AA9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="AB9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="AC9" s="28" t="s">
         <v>145</v>
@@ -3987,19 +3993,19 @@
       </c>
       <c r="R10" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="S10" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="T10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="U10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="V10" s="28">
         <f t="shared" ca="1" si="0"/>
@@ -4007,11 +4013,11 @@
       </c>
       <c r="W10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="X10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="Y10" s="28">
         <f t="shared" ca="1" si="0"/>
@@ -4023,11 +4029,11 @@
       </c>
       <c r="AA10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="AB10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AC10" s="28" t="s">
         <v>153</v>
@@ -5325,25 +5331,25 @@
     <cfRule type="duplicateValues" dxfId="120" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:G1">
-    <cfRule type="duplicateValues" dxfId="119" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:L1">
-    <cfRule type="duplicateValues" dxfId="111" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="42"/>
     <cfRule type="duplicateValues" dxfId="110" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="49"/>
     <cfRule type="duplicateValues" dxfId="106" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
     <cfRule type="duplicateValues" dxfId="102" priority="15"/>
@@ -5394,13 +5400,13 @@
     <cfRule type="duplicateValues" dxfId="87" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1:AF1">
-    <cfRule type="duplicateValues" dxfId="86" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE2:AF2 K7:L18 L5:M6 K3:L5">
     <cfRule type="duplicateValues" dxfId="79" priority="36"/>
@@ -5615,47 +5621,47 @@
       </c>
       <c r="H3" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>4.9000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="I3" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="J3" s="28">
         <f t="shared" ref="J3:R10" ca="1" si="0">ROUND(RAND()*5,1)</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K3" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="L3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="M3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="N3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="O3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="Q3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>3.4</v>
-      </c>
-      <c r="L3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="M3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="O3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
-      </c>
-      <c r="P3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Q3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="R3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
       </c>
       <c r="S3" t="s">
         <v>144</v>
@@ -5685,47 +5691,47 @@
       </c>
       <c r="H4" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="28">
         <f t="shared" ref="I4:I10" ca="1" si="1">ROUND(RAND()*5,1)</f>
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="J4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="K4" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="L4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>3.4</v>
       </c>
-      <c r="L4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="M4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
-      </c>
       <c r="N4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="O4" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="P4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q4" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="P4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="Q4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.9</v>
-      </c>
       <c r="R4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="S4" s="28" t="s">
         <v>153</v>
@@ -5755,47 +5761,47 @@
       </c>
       <c r="H5" s="28">
         <f t="shared" ref="H5:H10" ca="1" si="2">ROUND(RAND()*5,1)</f>
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K5" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="L5" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="L5" s="28">
+      <c r="M5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="O5" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>3.9</v>
       </c>
-      <c r="M5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
-      </c>
-      <c r="N5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="O5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.6</v>
-      </c>
-      <c r="P5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7</v>
-      </c>
       <c r="Q5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="R5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="S5" s="28" t="s">
         <v>146</v>
@@ -5826,47 +5832,47 @@
       <c r="G6" s="17"/>
       <c r="H6" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="I6" s="28">
         <f t="shared" ca="1" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="J6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="K6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="L6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M6" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="J6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.8</v>
-      </c>
-      <c r="L6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="M6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.6</v>
-      </c>
       <c r="N6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="O6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>2.9</v>
       </c>
       <c r="P6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="R6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="S6" s="28" t="s">
         <v>151</v>
@@ -5896,47 +5902,47 @@
       </c>
       <c r="H7" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="I7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="J7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="K7" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="L7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="M7" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="N7" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>4.7</v>
       </c>
-      <c r="L7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.9</v>
-      </c>
-      <c r="N7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
       <c r="O7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="P7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0999999999999996</v>
+        <v>2.7</v>
       </c>
       <c r="Q7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0999999999999996</v>
+        <v>3.4</v>
       </c>
       <c r="R7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="S7" s="28" t="s">
         <v>145</v>
@@ -5966,47 +5972,47 @@
       </c>
       <c r="H8" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="I8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>3.6</v>
       </c>
       <c r="J8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="L8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="M8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="N8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O8" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="P8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="R8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="S8" s="28" t="s">
         <v>153</v>
@@ -6036,47 +6042,47 @@
       </c>
       <c r="H9" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="I9" s="28">
         <f t="shared" ca="1" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="J9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="L9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="M9" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="J9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="K9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.8</v>
-      </c>
-      <c r="L9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.9</v>
-      </c>
-      <c r="M9" s="28">
+      <c r="N9" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="N9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.7</v>
-      </c>
       <c r="O9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="P9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="R9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="S9" s="28" t="s">
         <v>145</v>
@@ -6106,19 +6112,19 @@
       </c>
       <c r="H10" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2999999999999998</v>
+        <v>4.8</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="J10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="K10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L10" s="28">
         <f t="shared" ca="1" si="0"/>
@@ -6126,27 +6132,27 @@
       </c>
       <c r="M10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="N10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="O10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="P10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="R10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="S10" s="28" t="s">
         <v>153</v>
@@ -6298,47 +6304,47 @@
       </c>
       <c r="H13">
         <f t="shared" ref="H13:R18" ca="1" si="3">ROUND(RAND()*5,1)</f>
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
+        <v>3.9</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>3.4</v>
       </c>
       <c r="S13" s="37" t="s">
         <v>144</v>
@@ -6368,47 +6374,47 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2</v>
+        <v>0.3</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="3"/>
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="S14" t="s">
         <v>147</v>
@@ -6438,47 +6444,47 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3</v>
+        <v>4.3</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1000000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="S15" t="s">
         <v>145</v>
@@ -6509,47 +6515,47 @@
       <c r="G16" s="17"/>
       <c r="H16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="3"/>
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="S16" s="18" t="s">
         <v>152</v>
@@ -6579,47 +6585,47 @@
       </c>
       <c r="H17" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2999999999999998</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="S17" s="18" t="s">
         <v>152</v>
@@ -6649,47 +6655,47 @@
       </c>
       <c r="H18" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="I18" s="18">
-        <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>1.5</v>
+        <f t="shared" ref="I18:R18" ca="1" si="4">ROUND(RAND()*5,1)</f>
+        <v>4.8</v>
       </c>
       <c r="J18" s="18">
-        <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>4.5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.1</v>
       </c>
       <c r="K18" s="18">
-        <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>2.8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="L18" s="18">
-        <f ca="1">ROUND(RAND()*5,1)</f>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.8</v>
+      </c>
+      <c r="M18" s="18">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="18">
+        <f t="shared" ca="1" si="4"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="M18" s="18">
-        <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>0.1</v>
-      </c>
-      <c r="N18" s="18">
-        <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>1.9</v>
-      </c>
       <c r="O18" s="18">
-        <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>4.9000000000000004</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.2</v>
       </c>
       <c r="P18" s="18">
-        <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>4.5999999999999996</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.6</v>
       </c>
       <c r="Q18" s="18">
-        <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>0.7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.2</v>
       </c>
       <c r="R18" s="18">
-        <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>4.4000000000000004</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="S18" s="18" t="s">
         <v>152</v>
@@ -6992,19 +6998,19 @@
     <cfRule type="duplicateValues" dxfId="33" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:G1">
-    <cfRule type="duplicateValues" dxfId="32" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="30" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
     <cfRule type="duplicateValues" dxfId="21" priority="37"/>
@@ -7013,13 +7019,13 @@
     <cfRule type="duplicateValues" dxfId="20" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1:AC1">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1">
     <cfRule type="duplicateValues" dxfId="12" priority="19"/>

--- a/recursos/EmparejamientoFINAL.xlsx
+++ b/recursos/EmparejamientoFINAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Sistema-TuGestor\recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\OneDrive\Documents\7 semestre\Sistema-TuGestor\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C333FCF7-D9F5-4417-979A-464BD90ED6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92453096-31B6-41CA-A9BD-C2A2D7E8B08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="670" xr2:uid="{FD9F6918-DD5F-4EFB-A5DA-81B3D2DC95CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="670" xr2:uid="{FD9F6918-DD5F-4EFB-A5DA-81B3D2DC95CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Emparejamiento" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -41,19 +52,10 @@
   <commentList>
     <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{1CDBB0FC-D22E-4D10-A2DB-DC4D443F4280}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Comentario encadenado]
+        <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Tuvo problemas de salud y no se ha contactado a las tutorías, pendiente respuesta para avisar al tutor</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -68,19 +70,10 @@
   <commentList>
     <comment ref="A12" authorId="0" shapeId="0" xr:uid="{B30B35B7-16C6-42C1-8BFB-C43D8A401A3B}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Comentario encadenado]
+        <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Tuvo problemas de salud y no se ha contactado a las tutorías, pendiente respuesta para avisar al tutor</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -2819,43 +2812,43 @@
       </c>
       <c r="S3" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="T3" s="28">
         <f t="shared" ref="T3:AB10" ca="1" si="0">ROUND(RAND()*5,1)</f>
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="V3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9000000000000004</v>
+        <v>1.7</v>
       </c>
       <c r="W3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="X3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="Y3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="Z3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="AA3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="AB3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="AC3" t="s">
         <v>144</v>
@@ -2886,47 +2879,47 @@
       </c>
       <c r="AL3">
         <f t="shared" ref="AL3:AV8" ca="1" si="1">ROUND(RAND()*5,1)</f>
-        <v>4.4000000000000004</v>
+        <v>2.8</v>
       </c>
       <c r="AM3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="AN3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="AO3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="AP3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="AQ3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AR3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AS3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="AT3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="AU3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>4.7</v>
       </c>
       <c r="AV3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="AW3" s="37" t="s">
         <v>144</v>
@@ -2995,47 +2988,47 @@
       </c>
       <c r="R4" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="S4" s="28">
         <f t="shared" ref="S4:S10" ca="1" si="2">ROUND(RAND()*5,1)</f>
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="T4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="U4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="V4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="W4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X4" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="Y4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="Z4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="AA4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="AB4" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>3.4</v>
-      </c>
-      <c r="Y4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="Z4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="AA4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.1</v>
-      </c>
-      <c r="AB4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
       </c>
       <c r="AC4" s="28" t="s">
         <v>153</v>
@@ -3066,47 +3059,47 @@
       </c>
       <c r="AL4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="AM4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="AN4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="AO4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AP4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="AQ4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="AR4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AS4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AT4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="AU4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="AV4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="AW4" t="s">
         <v>147</v>
@@ -3175,47 +3168,47 @@
       </c>
       <c r="R5" s="28">
         <f t="shared" ref="R5:R10" ca="1" si="3">ROUND(RAND()*5,1)</f>
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="T5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="U5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="V5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="W5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Y5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Z5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="AA5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>2.8</v>
       </c>
       <c r="AB5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="AC5" s="28" t="s">
         <v>146</v>
@@ -3246,47 +3239,47 @@
       </c>
       <c r="AL5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AM5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AN5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="AO5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>2.9</v>
       </c>
       <c r="AP5">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AQ5">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="AR5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="AS5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
+        <v>2.6</v>
       </c>
       <c r="AT5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AU5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AV5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="AW5" t="s">
         <v>145</v>
@@ -3355,47 +3348,47 @@
       </c>
       <c r="R6" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="S6" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="T6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="U6" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="W6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="X6" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="Y6" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="V6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="W6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="X6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="Y6" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Z6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="AA6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="AB6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="AC6" s="28" t="s">
         <v>151</v>
@@ -3426,47 +3419,47 @@
       </c>
       <c r="AL6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="AM6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="AN6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="AO6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="AP6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="AQ6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="AR6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="AS6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="AT6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7</v>
+        <v>0.1</v>
       </c>
       <c r="AU6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="AV6" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="AW6" s="18" t="s">
         <v>152</v>
@@ -3535,47 +3528,47 @@
       </c>
       <c r="R7" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="S7" s="28">
         <f t="shared" ca="1" si="2"/>
+        <v>3.3</v>
+      </c>
+      <c r="T7" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="T7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
       <c r="U7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="V7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="W7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>3.9</v>
       </c>
       <c r="X7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Y7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="Z7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="AA7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="AC7" s="28" t="s">
         <v>145</v>
@@ -3603,47 +3596,47 @@
       </c>
       <c r="AL7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AM7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="AN7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>3.5</v>
       </c>
       <c r="AO7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AP7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="AQ7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>2.7</v>
       </c>
       <c r="AR7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="AS7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>3.6</v>
       </c>
       <c r="AT7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2999999999999998</v>
+        <v>3.1</v>
       </c>
       <c r="AU7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="AV7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="AW7" t="s">
         <v>144</v>
@@ -3712,47 +3705,47 @@
       </c>
       <c r="R8" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="S8" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="T8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="U8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="V8" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="W8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="Y8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="Z8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="AA8" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="AB8" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>0.1</v>
-      </c>
-      <c r="W8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="X8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Y8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="Z8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="AA8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="AB8" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
       </c>
       <c r="AC8" s="28" t="s">
         <v>153</v>
@@ -3780,47 +3773,47 @@
       </c>
       <c r="AL8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AM8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AN8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="AO8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="AP8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="AQ8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AR8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AS8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AT8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AV8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7</v>
+        <v>0.1</v>
       </c>
       <c r="AW8" t="s">
         <v>152</v>
@@ -3889,47 +3882,47 @@
       </c>
       <c r="R9" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="S9" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="T9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="U9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="V9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>3.6</v>
       </c>
       <c r="W9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="X9" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="Z9" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.9</v>
-      </c>
-      <c r="Z9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
-      </c>
       <c r="AA9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="AC9" s="28" t="s">
         <v>145</v>
@@ -3993,47 +3986,47 @@
       </c>
       <c r="R10" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="S10" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="T10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="U10" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="V10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="W10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="X10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Y10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="AA10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="AB10" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>3.2</v>
-      </c>
-      <c r="V10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.6</v>
-      </c>
-      <c r="W10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
-      </c>
-      <c r="X10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="Y10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
-      </c>
-      <c r="Z10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="AA10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="AB10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.5</v>
       </c>
       <c r="AC10" s="28" t="s">
         <v>153</v>
@@ -5621,47 +5614,47 @@
       </c>
       <c r="H3" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="I3" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="J3" s="28">
         <f t="shared" ref="J3:R10" ca="1" si="0">ROUND(RAND()*5,1)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="M3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="N3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="P3" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="Q3" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="K3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.8</v>
-      </c>
-      <c r="L3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="M3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="N3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="O3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="P3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.7</v>
-      </c>
-      <c r="Q3" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="R3" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="S3" t="s">
         <v>144</v>
@@ -5691,47 +5684,47 @@
       </c>
       <c r="H4" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I4" s="28">
         <f t="shared" ref="I4:I10" ca="1" si="1">ROUND(RAND()*5,1)</f>
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="J4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="K4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="L4" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="M4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O4" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="P4" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="M4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
-      </c>
-      <c r="N4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="O4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="P4" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6</v>
-      </c>
       <c r="Q4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="R4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="S4" s="28" t="s">
         <v>153</v>
@@ -5761,47 +5754,47 @@
       </c>
       <c r="H5" s="28">
         <f t="shared" ref="H5:H10" ca="1" si="2">ROUND(RAND()*5,1)</f>
-        <v>4.0999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="I5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="J5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="L5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="N5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="P5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="S5" s="28" t="s">
         <v>146</v>
@@ -5832,47 +5825,47 @@
       <c r="G6" s="17"/>
       <c r="H6" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="I6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="J6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="K6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="L6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="M6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="O6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="R6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="S6" s="28" t="s">
         <v>151</v>
@@ -5902,47 +5895,47 @@
       </c>
       <c r="H7" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="I7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="J7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="K7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="L7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="M7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="N7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="O7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="P7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="R7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="S7" s="28" t="s">
         <v>145</v>
@@ -5972,47 +5965,47 @@
       </c>
       <c r="H8" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="I8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="J8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>1.9</v>
       </c>
       <c r="K8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="L8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="M8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="N8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O8" s="28">
         <f ca="1">ROUND(RAND()*5,1)</f>
-        <v>4.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="Q8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="R8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="S8" s="28" t="s">
         <v>153</v>
@@ -6042,47 +6035,47 @@
       </c>
       <c r="H9" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I9" s="28">
         <f t="shared" ca="1" si="1"/>
+        <v>4.7</v>
+      </c>
+      <c r="J9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.9</v>
+      </c>
+      <c r="K9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="L9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="N9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="O9" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P9" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="J9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="L9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.6</v>
-      </c>
-      <c r="M9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="N9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7</v>
-      </c>
-      <c r="P9" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
       <c r="Q9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="R9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="S9" s="28" t="s">
         <v>145</v>
@@ -6112,47 +6105,47 @@
       </c>
       <c r="H10" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="K10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="L10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="M10" s="28">
         <f t="shared" ca="1" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="N10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="O10" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="P10" s="28">
+        <f t="shared" ca="1" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="N10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="O10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="P10" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
-      </c>
       <c r="Q10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="S10" s="28" t="s">
         <v>153</v>
@@ -6304,47 +6297,47 @@
       </c>
       <c r="H13">
         <f t="shared" ref="H13:R18" ca="1" si="3">ROUND(RAND()*5,1)</f>
-        <v>3.9</v>
+        <v>0.2</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="3"/>
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="S13" s="37" t="s">
         <v>144</v>
@@ -6374,19 +6367,19 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3</v>
+        <v>3.7</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="3"/>
@@ -6394,27 +6387,27 @@
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="S14" t="s">
         <v>147</v>
@@ -6444,47 +6437,47 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S15" t="s">
         <v>145</v>
@@ -6515,47 +6508,47 @@
       <c r="G16" s="17"/>
       <c r="H16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8</v>
+        <v>0.1</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="S16" s="18" t="s">
         <v>152</v>
@@ -6585,47 +6578,47 @@
       </c>
       <c r="H17" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0999999999999996</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="S17" s="18" t="s">
         <v>152</v>
@@ -6655,47 +6648,47 @@
       </c>
       <c r="H18" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" ref="I18:R18" ca="1" si="4">ROUND(RAND()*5,1)</f>
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="L18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="N18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2000000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="O18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="P18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="R18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="S18" s="18" t="s">
         <v>152</v>
